--- a/Divisions/D1.xlsx
+++ b/Divisions/D1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7320" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7320" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
     <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
     <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="L6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="134">
   <si>
     <t>Team</t>
   </si>
@@ -199,6 +200,234 @@
   <si>
     <t>d1_avg_totalgoals</t>
   </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Augsburg,L W L D L L</t>
+  </si>
+  <si>
+    <t>Bayern Munich,W W D W W L</t>
+  </si>
+  <si>
+    <t>Bielefeld,L D W D W L</t>
+  </si>
+  <si>
+    <t>Dortmund,D L W W W W</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,W W W L W L</t>
+  </si>
+  <si>
+    <t>FC Koln,D L L L W W</t>
+  </si>
+  <si>
+    <t>Freiburg,L W L L W D</t>
+  </si>
+  <si>
+    <t>Hertha,W L W D D D</t>
+  </si>
+  <si>
+    <t>Hoffenheim,L L D D W D</t>
+  </si>
+  <si>
+    <t>Leverkusen,L W D W L W</t>
+  </si>
+  <si>
+    <t>Mainz,W D W W W D</t>
+  </si>
+  <si>
+    <t>Mgladbach,W W D W L W</t>
+  </si>
+  <si>
+    <t>RB Leipzig,W L W D L W</t>
+  </si>
+  <si>
+    <t>Schalke 04,L L L W L L</t>
+  </si>
+  <si>
+    <t>Stuttgart,L W L L L L</t>
+  </si>
+  <si>
+    <t>Union Berlin,L D D W L W</t>
+  </si>
+  <si>
+    <t>Werder Bremen,L L L L L L</t>
+  </si>
+  <si>
+    <t>Wolfsburg,W W L L W L</t>
+  </si>
+  <si>
+    <t>Augsburg,0 2 0 0 0 2</t>
+  </si>
+  <si>
+    <t>Bayern Munich,4 1 1 3 2 1</t>
+  </si>
+  <si>
+    <t>Bielefeld,0 1 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Dortmund,2 1 3 4 2 2</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,5 2 4 0 2 1</t>
+  </si>
+  <si>
+    <t>FC Koln,2 0 2 0 2 3</t>
+  </si>
+  <si>
+    <t>Freiburg,0 2 1 0 4 1</t>
+  </si>
+  <si>
+    <t>Hertha,2 0 3 1 2 1</t>
+  </si>
+  <si>
+    <t>Hoffenheim,1 1 0 0 3 1</t>
+  </si>
+  <si>
+    <t>Leverkusen,0 2 0 3 0 3</t>
+  </si>
+  <si>
+    <t>Mainz,2 1 3 1 2 1</t>
+  </si>
+  <si>
+    <t>Mgladbach,3 2 2 4 2 5</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1 0 4 0 1 2</t>
+  </si>
+  <si>
+    <t>Schalke 04,0 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t>Stuttgart,0 1 2 1 1 0</t>
+  </si>
+  <si>
+    <t>Union Berlin,2 1 1 2 0 3</t>
+  </si>
+  <si>
+    <t>Werder Bremen,1 0 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Wolfsburg,2 1 3 2 3 0</t>
+  </si>
+  <si>
+    <t>Augsburg,2 1 1 0 2 3</t>
+  </si>
+  <si>
+    <t>Bayern Munich,0 0 1 2 0 2</t>
+  </si>
+  <si>
+    <t>Bielefeld,1 1 0 0 0 5</t>
+  </si>
+  <si>
+    <t>Dortmund,2 2 2 1 0 0</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,2 1 3 4 0 3</t>
+  </si>
+  <si>
+    <t>FC Koln,2 1 3 3 1 2</t>
+  </si>
+  <si>
+    <t>Freiburg,1 0 2 1 0 1</t>
+  </si>
+  <si>
+    <t>Hertha,1 2 0 1 2 1</t>
+  </si>
+  <si>
+    <t>Hoffenheim,2 2 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Leverkusen,3 1 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Mainz,1 1 2 0 1 1</t>
+  </si>
+  <si>
+    <t>Mgladbach,0 1 2 0 3 0</t>
+  </si>
+  <si>
+    <t>RB Leipzig,0 1 1 0 2 0</t>
+  </si>
+  <si>
+    <t>Schalke 04,5 3 2 0 4 1</t>
+  </si>
+  <si>
+    <t>Stuttgart,4 0 3 2 3 2</t>
+  </si>
+  <si>
+    <t>Union Berlin,5 1 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Werder Bremen,2 1 4 4 1 3</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1 0 4 3 1 2</t>
+  </si>
+  <si>
+    <t>Augsburg,2 3 1 0 2 5</t>
+  </si>
+  <si>
+    <t>Bayern Munich,4 1 2 5 2 3</t>
+  </si>
+  <si>
+    <t>Bielefeld,1 2 1 0 1 5</t>
+  </si>
+  <si>
+    <t>Dortmund,4 3 5 5 2 2</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,7 3 7 4 2 4</t>
+  </si>
+  <si>
+    <t>FC Koln,4 1 5 3 3 5</t>
+  </si>
+  <si>
+    <t>Freiburg,1 2 3 1 4 2</t>
+  </si>
+  <si>
+    <t>Hertha,3 2 3 2 4 2</t>
+  </si>
+  <si>
+    <t>Hoffenheim,3 3 0 0 5 2</t>
+  </si>
+  <si>
+    <t>Leverkusen,3 3 0 3 2 4</t>
+  </si>
+  <si>
+    <t>Mainz,3 2 5 1 3 2</t>
+  </si>
+  <si>
+    <t>Mgladbach,3 3 4 4 5 5</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1 1 5 0 3 2</t>
+  </si>
+  <si>
+    <t>Schalke 04,5 3 3 1 4 1</t>
+  </si>
+  <si>
+    <t>Stuttgart,4 1 5 3 4 2</t>
+  </si>
+  <si>
+    <t>Union Berlin,7 2 2 3 2 4</t>
+  </si>
+  <si>
+    <t>Werder Bremen,3 1 5 5 1 4</t>
+  </si>
+  <si>
+    <t>Wolfsburg,3 1 7 5 4 2</t>
+  </si>
 </sst>
 </file>
 
@@ -213,12 +442,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,35 +468,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -279,16 +495,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -586,8 +792,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1223,22 +1429,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="56" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="69" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="79" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="40" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="44" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="56" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="59" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="69" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="72" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="79" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="82" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="93" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -6636,13 +6842,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:CP19">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",B2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6661,22 +6867,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="56" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="69" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="79" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="40" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="44" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="56" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="59" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="69" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="72" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="79" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="82" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="93" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -12100,22 +12306,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="56" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="69" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="79" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="40" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="44" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="56" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="59" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="69" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="72" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="79" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="82" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="93" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -17539,22 +17745,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="56" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="69" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="79" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="40" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="44" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="56" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="59" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="69" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="72" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="79" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="82" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="93" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -22971,13 +23177,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="24" max="24" width="19" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -24407,4 +24613,345 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Divisions/D1.xlsx
+++ b/Divisions/D1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
     <sheet name="L6" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -442,18 +442,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -472,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23178,7 +23172,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24619,13 +24613,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>

--- a/Divisions/D1.xlsx
+++ b/Divisions/D1.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="720" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1158,166 +1165,166 @@
     <t>Wolfsburg,L L W L W D</t>
   </si>
   <si>
-    <t>Augsburg,0 0 0 2 1 2</t>
-  </si>
-  <si>
-    <t>Bayern Munich,1 3 2 1 6 2</t>
-  </si>
-  <si>
-    <t>Bielefeld,1 0 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Dortmund,3 4 2 2 3 3</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,4 0 2 1 1 3</t>
-  </si>
-  <si>
-    <t>FC Koln,2 0 2 3 1 0</t>
-  </si>
-  <si>
-    <t>Freiburg,0 4 1 0 4 2</t>
-  </si>
-  <si>
-    <t>Hertha,2 1 3 0 2 0</t>
-  </si>
-  <si>
-    <t>Hoffenheim,0 0 3 1 4 1</t>
-  </si>
-  <si>
-    <t>Leverkusen,0 3 0 3 0 1</t>
-  </si>
-  <si>
-    <t>Mainz,3 1 2 1 1 1</t>
-  </si>
-  <si>
-    <t>Mgladbach,2 4 2 5 0 1</t>
-  </si>
-  <si>
-    <t>RB Leipzig,4 0 1 2 2 2</t>
-  </si>
-  <si>
-    <t>Schalke 04,1 0 0 2 1 4</t>
-  </si>
-  <si>
-    <t>Stuttgart,2 1 1 0 2 2</t>
-  </si>
-  <si>
-    <t>Union Berlin,1 2 0 3 0 1</t>
-  </si>
-  <si>
-    <t>Werder Bremen,1 1 0 1 0 0</t>
-  </si>
-  <si>
-    <t>Wolfsburg,3 2 3 0 3 2</t>
-  </si>
-  <si>
-    <t>Augsburg,1 0 2 3 2 0</t>
-  </si>
-  <si>
-    <t>Bayern Munich,1 2 0 2 0 2</t>
-  </si>
-  <si>
-    <t>Bielefeld,0 0 0 5 0 1</t>
-  </si>
-  <si>
-    <t>Dortmund,2 1 0 0 2 1</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,3 4 0 3 1 4</t>
-  </si>
-  <si>
-    <t>FC Koln,3 3 1 2 4 0</t>
-  </si>
-  <si>
-    <t>Freiburg,1 0 1 3 1 2</t>
-  </si>
-  <si>
-    <t>Hertha,2 1 0 0 1 0</t>
-  </si>
-  <si>
-    <t>Hoffenheim,0 0 2 1 2 1</t>
-  </si>
-  <si>
-    <t>Leverkusen,0 0 2 1 0 1</t>
-  </si>
-  <si>
-    <t>Mainz,2 0 1 1 1 3</t>
-  </si>
-  <si>
-    <t>Mgladbach,2 0 3 0 6 2</t>
-  </si>
-  <si>
-    <t>RB Leipzig,1 0 2 0 3 2</t>
-  </si>
-  <si>
-    <t>Schalke 04,0 4 1 4 2 3</t>
-  </si>
-  <si>
-    <t>Stuttgart,3 2 3 2 1 1</t>
-  </si>
-  <si>
-    <t>Union Berlin,1 1 2 1 3 1</t>
-  </si>
-  <si>
-    <t>Werder Bremen,4 4 1 3 0 2</t>
-  </si>
-  <si>
-    <t>Wolfsburg,4 3 1 2 0 2</t>
-  </si>
-  <si>
-    <t>Augsburg,1 0 2 5 3 2</t>
-  </si>
-  <si>
-    <t>Bayern Munich,2 5 2 3 6 4</t>
-  </si>
-  <si>
-    <t>Bielefeld,1 0 1 5 0 2</t>
-  </si>
-  <si>
-    <t>Dortmund,5 5 2 2 5 4</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,7 4 2 4 2 7</t>
-  </si>
-  <si>
-    <t>FC Koln,5 3 3 5 5 0</t>
-  </si>
-  <si>
-    <t>Freiburg,1 4 2 3 5 4</t>
-  </si>
-  <si>
-    <t>Hertha,4 2 3 0 3 0</t>
-  </si>
-  <si>
-    <t>Hoffenheim,0 0 5 2 6 2</t>
-  </si>
-  <si>
-    <t>Leverkusen,0 3 2 4 0 2</t>
-  </si>
-  <si>
-    <t>Mainz,5 1 3 2 2 4</t>
-  </si>
-  <si>
-    <t>Mgladbach,4 4 5 5 6 3</t>
-  </si>
-  <si>
-    <t>RB Leipzig,5 0 3 2 5 4</t>
-  </si>
-  <si>
-    <t>Schalke 04,1 4 1 6 3 7</t>
-  </si>
-  <si>
-    <t>Stuttgart,5 3 4 2 3 3</t>
-  </si>
-  <si>
-    <t>Union Berlin,2 3 2 4 3 2</t>
-  </si>
-  <si>
-    <t>Werder Bremen,5 5 1 4 0 2</t>
-  </si>
-  <si>
-    <t>Wolfsburg,7 5 4 2 3 4</t>
+    <t>Augsburg,0 0 0 2 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,1 3 2 1 6 2,(15)</t>
+  </si>
+  <si>
+    <t>Bielefeld,1 0 1 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Dortmund,3 4 2 2 3 3,(17)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,4 0 2 1 1 3,(11)</t>
+  </si>
+  <si>
+    <t>FC Koln,2 0 2 3 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Freiburg,0 4 1 0 4 2,(11)</t>
+  </si>
+  <si>
+    <t>Hertha,2 1 3 0 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,0 0 3 1 4 1,(9)</t>
+  </si>
+  <si>
+    <t>Leverkusen,0 3 0 3 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Mainz,3 1 2 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Mgladbach,2 4 2 5 0 1,(14)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,4 0 1 2 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Schalke 04,1 0 0 2 1 4,(8)</t>
+  </si>
+  <si>
+    <t>Stuttgart,2 1 1 0 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Union Berlin,1 2 0 3 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Werder Bremen,1 1 0 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,3 2 3 0 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Augsburg,1 0 2 3 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,1 2 0 2 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Bielefeld,0 0 0 5 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Dortmund,2 1 0 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,3 4 0 3 1 4,(15)</t>
+  </si>
+  <si>
+    <t>FC Koln,3 3 1 2 4 0,(13)</t>
+  </si>
+  <si>
+    <t>Freiburg,1 0 1 3 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Hertha,2 1 0 0 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,0 0 2 1 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Leverkusen,0 0 2 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Mainz,2 0 1 1 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Mgladbach,2 0 3 0 6 2,(13)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1 0 2 0 3 2,(8)</t>
+  </si>
+  <si>
+    <t>Schalke 04,0 4 1 4 2 3,(14)</t>
+  </si>
+  <si>
+    <t>Stuttgart,3 2 3 2 1 1,(12)</t>
+  </si>
+  <si>
+    <t>Union Berlin,1 1 2 1 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Werder Bremen,4 4 1 3 0 2,(14)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,4 3 1 2 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Augsburg,1 0 2 5 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,2 5 2 3 6 4,(22)</t>
+  </si>
+  <si>
+    <t>Bielefeld,1 0 1 5 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Dortmund,5 5 2 2 5 4,(23)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,7 4 2 4 2 7,(26)</t>
+  </si>
+  <si>
+    <t>FC Koln,5 3 3 5 5 0,(21)</t>
+  </si>
+  <si>
+    <t>Freiburg,1 4 2 3 5 4,(19)</t>
+  </si>
+  <si>
+    <t>Hertha,4 2 3 0 3 0,(12)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,0 0 5 2 6 2,(15)</t>
+  </si>
+  <si>
+    <t>Leverkusen,0 3 2 4 0 2,(11)</t>
+  </si>
+  <si>
+    <t>Mainz,5 1 3 2 2 4,(17)</t>
+  </si>
+  <si>
+    <t>Mgladbach,4 4 5 5 6 3,(27)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,5 0 3 2 5 4,(19)</t>
+  </si>
+  <si>
+    <t>Schalke 04,1 4 1 6 3 7,(22)</t>
+  </si>
+  <si>
+    <t>Stuttgart,5 3 4 2 3 3,(20)</t>
+  </si>
+  <si>
+    <t>Union Berlin,2 3 2 4 3 2,(16)</t>
+  </si>
+  <si>
+    <t>Werder Bremen,5 5 1 4 0 2,(17)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,7 5 4 2 3 4,(25)</t>
   </si>
   <si>
     <t>Augsburg,Schalke 04 Bielefeld Ein Frankfurt FC Koln Stuttgart Werder Bremen</t>
@@ -1377,11 +1384,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1393,7 +1399,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1411,19 +1417,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1795,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1548,7 +1827,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1891,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1644,7 +1923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +1955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1708,7 +1987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +2019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1772,7 +2051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1804,7 +2083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1836,7 +2115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1868,7 +2147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1900,7 +2179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1932,7 +2211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1964,7 +2243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1996,7 +2275,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2029,20 +2308,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -2344,7 +2622,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2649,7 +2927,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2954,7 +3232,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -3259,7 +3537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3564,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3869,7 +4147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4174,7 +4452,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4479,7 +4757,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -4784,7 +5062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5089,7 +5367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5394,7 +5672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -5699,7 +5977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -6004,7 +6282,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -6309,7 +6587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -6614,7 +6892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -6919,7 +7197,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -7224,7 +7502,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -7529,7 +7807,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7835,20 +8113,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -8150,7 +8427,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -8455,7 +8732,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -8760,7 +9037,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -9065,7 +9342,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -9370,7 +9647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -9675,7 +9952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9980,7 +10257,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -10285,7 +10562,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -10590,7 +10867,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -10895,7 +11172,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -11200,7 +11477,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -11505,7 +11782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -11810,7 +12087,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -12115,7 +12392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -12420,7 +12697,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -12725,7 +13002,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -13030,7 +13307,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -13335,7 +13612,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -13641,20 +13918,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -13956,7 +14232,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -14261,7 +14537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -14566,7 +14842,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -14871,7 +15147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -15176,7 +15452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -15481,7 +15757,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -15786,7 +16062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -16091,7 +16367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -16396,7 +16672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -16701,7 +16977,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -17006,7 +17282,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -17311,7 +17587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -17616,7 +17892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -17921,7 +18197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -18226,7 +18502,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -18531,7 +18807,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -18836,7 +19112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -19141,7 +19417,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -19447,20 +19723,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -19762,7 +20037,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -20067,7 +20342,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -20372,7 +20647,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -20677,7 +20952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -20982,7 +21257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -21287,7 +21562,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -21592,7 +21867,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -21897,7 +22172,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -22202,7 +22477,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -22507,7 +22782,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -22812,7 +23087,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -23117,7 +23392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -23422,7 +23697,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -23727,7 +24002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -24032,7 +24307,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -24337,7 +24612,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -24642,7 +24917,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -24947,7 +25222,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -25253,20 +25528,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -25337,7 +25611,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -25411,7 +25685,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -25485,7 +25759,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -25559,7 +25833,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -25633,7 +25907,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -25707,7 +25981,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -25781,7 +26055,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -25855,7 +26129,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -25929,7 +26203,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -26003,7 +26277,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -26077,7 +26351,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -26151,7 +26425,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -26225,7 +26499,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -26299,7 +26573,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -26373,7 +26647,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -26447,7 +26721,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -26521,7 +26795,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -26595,7 +26869,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -26670,20 +26944,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>237</v>
       </c>
@@ -26757,36 +27030,36 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>101</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
         <v>1.1875</v>
       </c>
-      <c r="H2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <v>0.8</v>
       </c>
-      <c r="J2" t="n">
-        <v>31.0</v>
+      <c r="J2">
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>260</v>
@@ -26797,32 +27070,32 @@
       <c r="M2" t="s">
         <v>295</v>
       </c>
-      <c r="N2" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="N2">
+        <v>31</v>
+      </c>
+      <c r="O2">
+        <v>90</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2">
+        <v>160</v>
+      </c>
+      <c r="R2">
+        <v>25</v>
+      </c>
+      <c r="S2">
         <v>1.5625</v>
       </c>
-      <c r="T2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2">
+        <v>22</v>
+      </c>
+      <c r="U2">
         <v>1.4666666666666666</v>
       </c>
-      <c r="V2" t="n">
-        <v>47.0</v>
+      <c r="V2">
+        <v>47</v>
       </c>
       <c r="W2" t="s">
         <v>313</v>
@@ -26834,36 +27107,36 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>215.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.533333333333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="C3">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>215</v>
+      </c>
+      <c r="F3">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="I3">
         <v>2.0625</v>
       </c>
-      <c r="J3" t="n">
-        <v>86.0</v>
+      <c r="J3">
+        <v>86</v>
       </c>
       <c r="K3" t="s">
         <v>261</v>
@@ -26874,32 +27147,32 @@
       <c r="M3" t="s">
         <v>296</v>
       </c>
-      <c r="N3" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>56</v>
+      </c>
+      <c r="P3">
+        <v>68</v>
+      </c>
+      <c r="Q3">
+        <v>124</v>
+      </c>
+      <c r="R3">
+        <v>19</v>
+      </c>
+      <c r="S3">
         <v>1.2666666666666666</v>
       </c>
-      <c r="T3" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="T3">
+        <v>21</v>
+      </c>
+      <c r="U3">
         <v>1.3125</v>
       </c>
-      <c r="V3" t="n">
-        <v>40.0</v>
+      <c r="V3">
+        <v>40</v>
       </c>
       <c r="W3" t="s">
         <v>314</v>
@@ -26911,36 +27184,36 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
         <v>0.75</v>
       </c>
-      <c r="H4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23.0</v>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
       </c>
       <c r="K4" t="s">
         <v>262</v>
@@ -26951,32 +27224,32 @@
       <c r="M4" t="s">
         <v>297</v>
       </c>
-      <c r="N4" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>177.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="N4">
+        <v>31</v>
+      </c>
+      <c r="O4">
+        <v>78</v>
+      </c>
+      <c r="P4">
+        <v>99</v>
+      </c>
+      <c r="Q4">
+        <v>177</v>
+      </c>
+      <c r="R4">
+        <v>22</v>
+      </c>
+      <c r="S4">
         <v>1.375</v>
       </c>
-      <c r="T4" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4">
+        <v>29</v>
+      </c>
+      <c r="U4">
         <v>1.9333333333333333</v>
       </c>
-      <c r="V4" t="n">
-        <v>51.0</v>
+      <c r="V4">
+        <v>51</v>
       </c>
       <c r="W4" t="s">
         <v>315</v>
@@ -26988,36 +27261,36 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>187.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5">
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>187</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="G5">
         <v>2.2666666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>66.0</v>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>66</v>
       </c>
       <c r="K5" t="s">
         <v>263</v>
@@ -27028,32 +27301,32 @@
       <c r="M5" t="s">
         <v>298</v>
       </c>
-      <c r="N5" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="N5">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>52</v>
+      </c>
+      <c r="P5">
+        <v>66</v>
+      </c>
+      <c r="Q5">
+        <v>118</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5">
         <v>1.1333333333333333</v>
       </c>
-      <c r="T5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5">
         <v>1.5625</v>
       </c>
-      <c r="V5" t="n">
-        <v>42.0</v>
+      <c r="V5">
+        <v>42</v>
       </c>
       <c r="W5" t="s">
         <v>316</v>
@@ -27065,36 +27338,36 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>157.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>157</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6">
+        <v>29</v>
+      </c>
+      <c r="I6">
         <v>1.8125</v>
       </c>
-      <c r="J6" t="n">
-        <v>62.0</v>
+      <c r="J6">
+        <v>62</v>
       </c>
       <c r="K6" t="s">
         <v>264</v>
@@ -27105,32 +27378,32 @@
       <c r="M6" t="s">
         <v>299</v>
       </c>
-      <c r="N6" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>147.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="N6">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>58</v>
+      </c>
+      <c r="P6">
+        <v>89</v>
+      </c>
+      <c r="Q6">
+        <v>147</v>
+      </c>
+      <c r="R6">
+        <v>18</v>
+      </c>
+      <c r="S6">
         <v>1.2</v>
       </c>
-      <c r="T6" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="T6">
+        <v>29</v>
+      </c>
+      <c r="U6">
         <v>1.8125</v>
       </c>
-      <c r="V6" t="n">
-        <v>47.0</v>
+      <c r="V6">
+        <v>47</v>
       </c>
       <c r="W6" t="s">
         <v>290</v>
@@ -27142,36 +27415,36 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>98</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
         <v>1.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
         <v>0.875</v>
       </c>
-      <c r="J7" t="n">
-        <v>32.0</v>
+      <c r="J7">
+        <v>32</v>
       </c>
       <c r="K7" t="s">
         <v>265</v>
@@ -27182,32 +27455,32 @@
       <c r="M7" t="s">
         <v>300</v>
       </c>
-      <c r="N7" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="N7">
+        <v>31</v>
+      </c>
+      <c r="O7">
+        <v>77</v>
+      </c>
+      <c r="P7">
+        <v>83</v>
+      </c>
+      <c r="Q7">
+        <v>160</v>
+      </c>
+      <c r="R7">
+        <v>27</v>
+      </c>
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="T7" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="T7">
+        <v>29</v>
+      </c>
+      <c r="U7">
         <v>1.8125</v>
       </c>
-      <c r="V7" t="n">
-        <v>56.0</v>
+      <c r="V7">
+        <v>56</v>
       </c>
       <c r="W7" t="s">
         <v>317</v>
@@ -27219,36 +27492,36 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="C8">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>31</v>
+      </c>
+      <c r="G8">
         <v>1.9375</v>
       </c>
-      <c r="H8" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>45.0</v>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
       </c>
       <c r="K8" t="s">
         <v>266</v>
@@ -27259,32 +27532,32 @@
       <c r="M8" t="s">
         <v>301</v>
       </c>
-      <c r="N8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>77</v>
+      </c>
+      <c r="P8">
+        <v>78</v>
+      </c>
+      <c r="Q8">
+        <v>155</v>
+      </c>
+      <c r="R8">
+        <v>21</v>
+      </c>
+      <c r="S8">
         <v>1.3125</v>
       </c>
-      <c r="T8" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="T8">
+        <v>22</v>
+      </c>
+      <c r="U8">
         <v>1.5714285714285714</v>
       </c>
-      <c r="V8" t="n">
-        <v>43.0</v>
+      <c r="V8">
+        <v>43</v>
       </c>
       <c r="W8" t="s">
         <v>318</v>
@@ -27296,36 +27569,36 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
         <v>1.2857142857142858</v>
       </c>
-      <c r="H9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
         <v>1.1428571428571428</v>
       </c>
-      <c r="J9" t="n">
-        <v>34.0</v>
+      <c r="J9">
+        <v>34</v>
       </c>
       <c r="K9" t="s">
         <v>267</v>
@@ -27336,32 +27609,32 @@
       <c r="M9" t="s">
         <v>302</v>
       </c>
-      <c r="N9" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="N9">
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <v>56</v>
+      </c>
+      <c r="P9">
+        <v>65</v>
+      </c>
+      <c r="Q9">
+        <v>121</v>
+      </c>
+      <c r="R9">
+        <v>26</v>
+      </c>
+      <c r="S9">
         <v>1.8571428571428572</v>
       </c>
-      <c r="T9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="T9">
+        <v>22</v>
+      </c>
+      <c r="U9">
         <v>1.5714285714285714</v>
       </c>
-      <c r="V9" t="n">
-        <v>48.0</v>
+      <c r="V9">
+        <v>48</v>
       </c>
       <c r="W9" t="s">
         <v>319</v>
@@ -27373,36 +27646,36 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="C10">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>146</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
         <v>1.7333333333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10">
         <v>1.1875</v>
       </c>
-      <c r="J10" t="n">
-        <v>45.0</v>
+      <c r="J10">
+        <v>45</v>
       </c>
       <c r="K10" t="s">
         <v>268</v>
@@ -27413,32 +27686,32 @@
       <c r="M10" t="s">
         <v>303</v>
       </c>
-      <c r="N10" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="N10">
+        <v>31</v>
+      </c>
+      <c r="O10">
+        <v>64</v>
+      </c>
+      <c r="P10">
+        <v>74</v>
+      </c>
+      <c r="Q10">
+        <v>138</v>
+      </c>
+      <c r="R10">
+        <v>21</v>
+      </c>
+      <c r="S10">
         <v>1.4</v>
       </c>
-      <c r="T10" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="T10">
+        <v>29</v>
+      </c>
+      <c r="U10">
         <v>1.8125</v>
       </c>
-      <c r="V10" t="n">
-        <v>50.0</v>
+      <c r="V10">
+        <v>50</v>
       </c>
       <c r="W10" t="s">
         <v>320</v>
@@ -27450,36 +27723,36 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>162.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C11">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>162</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="G11">
         <v>2.0625</v>
       </c>
-      <c r="H11" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
         <v>1.2</v>
       </c>
-      <c r="J11" t="n">
-        <v>51.0</v>
+      <c r="J11">
+        <v>51</v>
       </c>
       <c r="K11" t="s">
         <v>269</v>
@@ -27490,32 +27763,32 @@
       <c r="M11" t="s">
         <v>304</v>
       </c>
-      <c r="N11" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="N11">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>58</v>
+      </c>
+      <c r="P11">
+        <v>47</v>
+      </c>
+      <c r="Q11">
+        <v>105</v>
+      </c>
+      <c r="R11">
+        <v>21</v>
+      </c>
+      <c r="S11">
         <v>1.3125</v>
       </c>
-      <c r="T11" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="V11" t="n">
-        <v>35.0</v>
+      <c r="T11">
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="V11">
+        <v>35</v>
       </c>
       <c r="W11" t="s">
         <v>321</v>
@@ -27527,36 +27800,36 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>118</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
         <v>1.2666666666666666</v>
       </c>
-      <c r="J12" t="n">
-        <v>33.0</v>
+      <c r="J12">
+        <v>33</v>
       </c>
       <c r="K12" t="s">
         <v>262</v>
@@ -27567,32 +27840,32 @@
       <c r="M12" t="s">
         <v>305</v>
       </c>
-      <c r="N12" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="N12">
+        <v>30</v>
+      </c>
+      <c r="O12">
+        <v>73</v>
+      </c>
+      <c r="P12">
+        <v>77</v>
+      </c>
+      <c r="Q12">
+        <v>150</v>
+      </c>
+      <c r="R12">
+        <v>22</v>
+      </c>
+      <c r="S12">
         <v>1.4666666666666666</v>
       </c>
-      <c r="T12" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="T12">
+        <v>27</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="V12" t="n">
-        <v>49.0</v>
+      <c r="V12">
+        <v>49</v>
       </c>
       <c r="W12" t="s">
         <v>322</v>
@@ -27604,36 +27877,36 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="C13">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>82</v>
+      </c>
+      <c r="E13">
+        <v>163</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
         <v>1.9375</v>
       </c>
-      <c r="H13" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13">
+        <v>28</v>
+      </c>
+      <c r="I13">
         <v>1.8666666666666667</v>
       </c>
-      <c r="J13" t="n">
-        <v>59.0</v>
+      <c r="J13">
+        <v>59</v>
       </c>
       <c r="K13" t="s">
         <v>270</v>
@@ -27644,32 +27917,32 @@
       <c r="M13" t="s">
         <v>306</v>
       </c>
-      <c r="N13" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="N13">
+        <v>31</v>
+      </c>
+      <c r="O13">
+        <v>66</v>
+      </c>
+      <c r="P13">
+        <v>75</v>
+      </c>
+      <c r="Q13">
+        <v>141</v>
+      </c>
+      <c r="R13">
+        <v>17</v>
+      </c>
+      <c r="S13">
         <v>1.0625</v>
       </c>
-      <c r="T13" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="T13">
+        <v>29</v>
+      </c>
+      <c r="U13">
         <v>1.9333333333333333</v>
       </c>
-      <c r="V13" t="n">
-        <v>46.0</v>
+      <c r="V13">
+        <v>46</v>
       </c>
       <c r="W13" t="s">
         <v>323</v>
@@ -27681,36 +27954,36 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>191.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>87</v>
+      </c>
+      <c r="E14">
+        <v>191</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14">
         <v>1.6875</v>
       </c>
-      <c r="H14" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="I14">
         <v>1.8666666666666667</v>
       </c>
-      <c r="J14" t="n">
-        <v>55.0</v>
+      <c r="J14">
+        <v>55</v>
       </c>
       <c r="K14" t="s">
         <v>271</v>
@@ -27721,32 +27994,32 @@
       <c r="M14" t="s">
         <v>307</v>
       </c>
-      <c r="N14" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="N14">
+        <v>31</v>
+      </c>
+      <c r="O14">
+        <v>37</v>
+      </c>
+      <c r="P14">
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>77</v>
+      </c>
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="S14">
         <v>0.6875</v>
       </c>
-      <c r="T14" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="V14" t="n">
-        <v>25.0</v>
+      <c r="T14">
+        <v>14</v>
+      </c>
+      <c r="U14">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="V14">
+        <v>25</v>
       </c>
       <c r="W14" t="s">
         <v>324</v>
@@ -27758,36 +28031,36 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="C15">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
         <v>0.6</v>
       </c>
-      <c r="H15" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
         <v>0.6</v>
       </c>
-      <c r="J15" t="n">
-        <v>18.0</v>
+      <c r="J15">
+        <v>18</v>
       </c>
       <c r="K15" t="s">
         <v>272</v>
@@ -27798,32 +28071,32 @@
       <c r="M15" t="s">
         <v>308</v>
       </c>
-      <c r="N15" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>205.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15">
+        <v>97</v>
+      </c>
+      <c r="P15">
+        <v>108</v>
+      </c>
+      <c r="Q15">
+        <v>205</v>
+      </c>
+      <c r="R15">
+        <v>29</v>
+      </c>
+      <c r="S15">
         <v>1.9333333333333333</v>
       </c>
-      <c r="T15" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>47</v>
+      </c>
+      <c r="U15">
         <v>3.1333333333333333</v>
       </c>
-      <c r="V15" t="n">
-        <v>76.0</v>
+      <c r="V15">
+        <v>76</v>
       </c>
       <c r="W15" t="s">
         <v>325</v>
@@ -27835,36 +28108,36 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>149</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16">
         <v>1.6875</v>
       </c>
-      <c r="J16" t="n">
-        <v>52.0</v>
+      <c r="J16">
+        <v>52</v>
       </c>
       <c r="K16" t="s">
         <v>273</v>
@@ -27875,32 +28148,32 @@
       <c r="M16" t="s">
         <v>309</v>
       </c>
-      <c r="N16" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="N16">
+        <v>31</v>
+      </c>
+      <c r="O16">
+        <v>79</v>
+      </c>
+      <c r="P16">
+        <v>81</v>
+      </c>
+      <c r="Q16">
+        <v>160</v>
+      </c>
+      <c r="R16">
+        <v>23</v>
+      </c>
+      <c r="S16">
         <v>1.5333333333333334</v>
       </c>
-      <c r="T16" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16">
+        <v>28</v>
+      </c>
+      <c r="U16">
         <v>1.75</v>
       </c>
-      <c r="V16" t="n">
-        <v>51.0</v>
+      <c r="V16">
+        <v>51</v>
       </c>
       <c r="W16" t="s">
         <v>326</v>
@@ -27912,36 +28185,36 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="C17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>134</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
         <v>1.875</v>
       </c>
-      <c r="H17" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17">
         <v>1.1333333333333333</v>
       </c>
-      <c r="J17" t="n">
-        <v>47.0</v>
+      <c r="J17">
+        <v>47</v>
       </c>
       <c r="K17" t="s">
         <v>274</v>
@@ -27952,32 +28225,32 @@
       <c r="M17" t="s">
         <v>310</v>
       </c>
-      <c r="N17" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="N17">
+        <v>31</v>
+      </c>
+      <c r="O17">
+        <v>55</v>
+      </c>
+      <c r="P17">
+        <v>69</v>
+      </c>
+      <c r="Q17">
+        <v>124</v>
+      </c>
+      <c r="R17">
+        <v>17</v>
+      </c>
+      <c r="S17">
         <v>1.0625</v>
       </c>
-      <c r="T17" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="T17">
+        <v>21</v>
+      </c>
+      <c r="U17">
         <v>1.4</v>
       </c>
-      <c r="V17" t="n">
-        <v>38.0</v>
+      <c r="V17">
+        <v>38</v>
       </c>
       <c r="W17" t="s">
         <v>292</v>
@@ -27989,36 +28262,36 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="C18">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
         <v>1.25</v>
       </c>
-      <c r="J18" t="n">
-        <v>34.0</v>
+      <c r="J18">
+        <v>34</v>
       </c>
       <c r="K18" t="s">
         <v>275</v>
@@ -28029,32 +28302,32 @@
       <c r="M18" t="s">
         <v>311</v>
       </c>
-      <c r="N18" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="N18">
+        <v>31</v>
+      </c>
+      <c r="O18">
+        <v>65</v>
+      </c>
+      <c r="P18">
+        <v>84</v>
+      </c>
+      <c r="Q18">
+        <v>149</v>
+      </c>
+      <c r="R18">
+        <v>24</v>
+      </c>
+      <c r="S18">
         <v>1.6</v>
       </c>
-      <c r="T18" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="T18">
+        <v>27</v>
+      </c>
+      <c r="U18">
         <v>1.6875</v>
       </c>
-      <c r="V18" t="n">
-        <v>51.0</v>
+      <c r="V18">
+        <v>51</v>
       </c>
       <c r="W18" t="s">
         <v>327</v>
@@ -28066,36 +28339,36 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <v>155</v>
+      </c>
+      <c r="F19">
+        <v>27</v>
+      </c>
+      <c r="G19">
         <v>1.8</v>
       </c>
-      <c r="H19" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19">
+        <v>27</v>
+      </c>
+      <c r="I19">
         <v>1.6875</v>
       </c>
-      <c r="J19" t="n">
-        <v>54.0</v>
+      <c r="J19">
+        <v>54</v>
       </c>
       <c r="K19" t="s">
         <v>276</v>
@@ -28106,32 +28379,32 @@
       <c r="M19" t="s">
         <v>312</v>
       </c>
-      <c r="N19" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="N19">
+        <v>31</v>
+      </c>
+      <c r="O19">
+        <v>51</v>
+      </c>
+      <c r="P19">
+        <v>62</v>
+      </c>
+      <c r="Q19">
+        <v>113</v>
+      </c>
+      <c r="R19">
+        <v>13</v>
+      </c>
+      <c r="S19">
         <v>0.8666666666666667</v>
       </c>
-      <c r="T19" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="T19">
+        <v>19</v>
+      </c>
+      <c r="U19">
         <v>1.1875</v>
       </c>
-      <c r="V19" t="n">
-        <v>32.0</v>
+      <c r="V19">
+        <v>32</v>
       </c>
       <c r="W19" t="s">
         <v>328</v>
@@ -28144,20 +28417,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="88.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>356</v>
       </c>
@@ -28174,7 +28455,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -28194,7 +28475,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -28214,7 +28495,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -28234,7 +28515,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -28254,7 +28535,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -28274,7 +28555,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -28294,7 +28575,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -28314,7 +28595,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -28334,7 +28615,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -28354,7 +28635,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -28374,7 +28655,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -28394,7 +28675,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -28414,7 +28695,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -28434,7 +28715,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -28454,7 +28735,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -28474,7 +28755,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -28494,7 +28775,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -28514,7 +28795,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -28535,6 +28816,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/D1.xlsx
+++ b/Divisions/D1.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="720" activeTab="7"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Form" sheetId="2" r:id="rId2"/>
-    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
-    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
-    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
-    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
-    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
-    <sheet name="L6" sheetId="8" r:id="rId8"/>
+    <sheet name="Table" r:id="rId3" sheetId="1"/>
+    <sheet name="Form" r:id="rId4" sheetId="2"/>
+    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
+    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
+    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
+    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1384,10 +1377,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1399,7 +1393,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1417,292 +1411,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1763,7 +1484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1827,7 +1548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1859,7 +1580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1891,7 +1612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1987,7 +1708,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2019,7 +1740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2051,7 +1772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +1804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2115,7 +1836,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2147,7 +1868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +1900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2211,7 +1932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2243,7 +1964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2275,7 +1996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2308,19 +2029,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -2622,7 +2344,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2927,7 +2649,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -3232,7 +2954,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -3537,7 +3259,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3842,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4147,7 +3869,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4452,7 +4174,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4757,7 +4479,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -5062,7 +4784,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5367,7 +5089,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5672,7 +5394,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -5977,7 +5699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -6282,7 +6004,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -6587,7 +6309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -6892,7 +6614,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -7197,7 +6919,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -7502,7 +7224,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -7807,7 +7529,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -8113,19 +7835,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -8427,7 +8150,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -8732,7 +8455,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -9037,7 +8760,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -9342,7 +9065,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -9647,7 +9370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -9952,7 +9675,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -10257,7 +9980,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -10562,7 +10285,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -10867,7 +10590,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -11172,7 +10895,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -11477,7 +11200,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -11782,7 +11505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -12087,7 +11810,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -12392,7 +12115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -12697,7 +12420,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -13002,7 +12725,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -13307,7 +13030,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -13612,7 +13335,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -13918,19 +13641,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -14232,7 +13956,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -14537,7 +14261,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -14842,7 +14566,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -15147,7 +14871,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -15452,7 +15176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -15757,7 +15481,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -16062,7 +15786,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -16367,7 +16091,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -16672,7 +16396,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -16977,7 +16701,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -17282,7 +17006,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -17587,7 +17311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -17892,7 +17616,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -18197,7 +17921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -18502,7 +18226,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -18807,7 +18531,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -19112,7 +18836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -19417,7 +19141,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -19723,19 +19447,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -20037,7 +19762,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -20342,7 +20067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -20647,7 +20372,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -20952,7 +20677,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -21257,7 +20982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -21562,7 +21287,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -21867,7 +21592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -22172,7 +21897,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -22477,7 +22202,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -22782,7 +22507,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -23087,7 +22812,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -23392,7 +23117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -23697,7 +23422,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -24002,7 +23727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -24307,7 +24032,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -24612,7 +24337,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -24917,7 +24642,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -25222,7 +24947,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -25528,19 +25253,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -25611,7 +25337,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -25685,7 +25411,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -25759,7 +25485,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -25833,7 +25559,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -25907,7 +25633,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -25981,7 +25707,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -26055,7 +25781,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -26129,7 +25855,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -26203,7 +25929,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -26277,7 +26003,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -26351,7 +26077,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -26425,7 +26151,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -26499,7 +26225,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -26573,7 +26299,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -26647,7 +26373,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -26721,7 +26447,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -26795,7 +26521,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -26869,7 +26595,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -26944,19 +26670,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>237</v>
       </c>
@@ -27030,36 +26757,36 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>51</v>
-      </c>
-      <c r="E2">
-        <v>101</v>
-      </c>
-      <c r="F2">
-        <v>19</v>
-      </c>
-      <c r="G2">
+      <c r="C2" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.1875</v>
       </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.8</v>
       </c>
-      <c r="J2">
-        <v>31</v>
+      <c r="J2" t="n">
+        <v>31.0</v>
       </c>
       <c r="K2" t="s">
         <v>260</v>
@@ -27070,32 +26797,32 @@
       <c r="M2" t="s">
         <v>295</v>
       </c>
-      <c r="N2">
-        <v>31</v>
-      </c>
-      <c r="O2">
-        <v>90</v>
-      </c>
-      <c r="P2">
-        <v>70</v>
-      </c>
-      <c r="Q2">
-        <v>160</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
+      <c r="N2" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.5625</v>
       </c>
-      <c r="T2">
-        <v>22</v>
-      </c>
-      <c r="U2">
+      <c r="T2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.4666666666666666</v>
       </c>
-      <c r="V2">
-        <v>47</v>
+      <c r="V2" t="n">
+        <v>47.0</v>
       </c>
       <c r="W2" t="s">
         <v>313</v>
@@ -27107,36 +26834,36 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3">
-        <v>117</v>
-      </c>
-      <c r="D3">
-        <v>98</v>
-      </c>
-      <c r="E3">
-        <v>215</v>
-      </c>
-      <c r="F3">
-        <v>53</v>
-      </c>
-      <c r="G3">
-        <v>3.5333333333333332</v>
-      </c>
-      <c r="H3">
-        <v>33</v>
-      </c>
-      <c r="I3">
+      <c r="C3" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.533333333333333</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.0625</v>
       </c>
-      <c r="J3">
-        <v>86</v>
+      <c r="J3" t="n">
+        <v>86.0</v>
       </c>
       <c r="K3" t="s">
         <v>261</v>
@@ -27147,32 +26874,32 @@
       <c r="M3" t="s">
         <v>296</v>
       </c>
-      <c r="N3">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>56</v>
-      </c>
-      <c r="P3">
-        <v>68</v>
-      </c>
-      <c r="Q3">
-        <v>124</v>
-      </c>
-      <c r="R3">
-        <v>19</v>
-      </c>
-      <c r="S3">
+      <c r="N3" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.2666666666666666</v>
       </c>
-      <c r="T3">
-        <v>21</v>
-      </c>
-      <c r="U3">
+      <c r="T3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.3125</v>
       </c>
-      <c r="V3">
-        <v>40</v>
+      <c r="V3" t="n">
+        <v>40.0</v>
       </c>
       <c r="W3" t="s">
         <v>314</v>
@@ -27184,36 +26911,36 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>41</v>
-      </c>
-      <c r="E4">
-        <v>89</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
+      <c r="C4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.75</v>
       </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="J4">
-        <v>23</v>
+      <c r="H4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.0</v>
       </c>
       <c r="K4" t="s">
         <v>262</v>
@@ -27224,32 +26951,32 @@
       <c r="M4" t="s">
         <v>297</v>
       </c>
-      <c r="N4">
-        <v>31</v>
-      </c>
-      <c r="O4">
-        <v>78</v>
-      </c>
-      <c r="P4">
-        <v>99</v>
-      </c>
-      <c r="Q4">
-        <v>177</v>
-      </c>
-      <c r="R4">
-        <v>22</v>
-      </c>
-      <c r="S4">
+      <c r="N4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.375</v>
       </c>
-      <c r="T4">
-        <v>29</v>
-      </c>
-      <c r="U4">
+      <c r="T4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.9333333333333333</v>
       </c>
-      <c r="V4">
-        <v>51</v>
+      <c r="V4" t="n">
+        <v>51.0</v>
       </c>
       <c r="W4" t="s">
         <v>315</v>
@@ -27261,36 +26988,36 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>94</v>
-      </c>
-      <c r="E5">
-        <v>187</v>
-      </c>
-      <c r="F5">
-        <v>34</v>
-      </c>
-      <c r="G5">
+      <c r="C5" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.2666666666666666</v>
       </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>66</v>
+      <c r="H5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>66.0</v>
       </c>
       <c r="K5" t="s">
         <v>263</v>
@@ -27301,32 +27028,32 @@
       <c r="M5" t="s">
         <v>298</v>
       </c>
-      <c r="N5">
-        <v>31</v>
-      </c>
-      <c r="O5">
-        <v>52</v>
-      </c>
-      <c r="P5">
-        <v>66</v>
-      </c>
-      <c r="Q5">
-        <v>118</v>
-      </c>
-      <c r="R5">
-        <v>17</v>
-      </c>
-      <c r="S5">
+      <c r="N5" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.1333333333333333</v>
       </c>
-      <c r="T5">
-        <v>25</v>
-      </c>
-      <c r="U5">
+      <c r="T5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.5625</v>
       </c>
-      <c r="V5">
-        <v>42</v>
+      <c r="V5" t="n">
+        <v>42.0</v>
       </c>
       <c r="W5" t="s">
         <v>316</v>
@@ -27338,36 +27065,36 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6">
-        <v>83</v>
-      </c>
-      <c r="D6">
-        <v>74</v>
-      </c>
-      <c r="E6">
-        <v>157</v>
-      </c>
-      <c r="F6">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-      <c r="I6">
+      <c r="C6" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.8125</v>
       </c>
-      <c r="J6">
-        <v>62</v>
+      <c r="J6" t="n">
+        <v>62.0</v>
       </c>
       <c r="K6" t="s">
         <v>264</v>
@@ -27378,32 +27105,32 @@
       <c r="M6" t="s">
         <v>299</v>
       </c>
-      <c r="N6">
-        <v>31</v>
-      </c>
-      <c r="O6">
-        <v>58</v>
-      </c>
-      <c r="P6">
-        <v>89</v>
-      </c>
-      <c r="Q6">
-        <v>147</v>
-      </c>
-      <c r="R6">
-        <v>18</v>
-      </c>
-      <c r="S6">
+      <c r="N6" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.2</v>
       </c>
-      <c r="T6">
-        <v>29</v>
-      </c>
-      <c r="U6">
+      <c r="T6" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.8125</v>
       </c>
-      <c r="V6">
-        <v>47</v>
+      <c r="V6" t="n">
+        <v>47.0</v>
       </c>
       <c r="W6" t="s">
         <v>290</v>
@@ -27415,36 +27142,36 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>98</v>
-      </c>
-      <c r="F7">
-        <v>18</v>
-      </c>
-      <c r="G7">
+      <c r="C7" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.2</v>
       </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.875</v>
       </c>
-      <c r="J7">
-        <v>32</v>
+      <c r="J7" t="n">
+        <v>32.0</v>
       </c>
       <c r="K7" t="s">
         <v>265</v>
@@ -27455,32 +27182,32 @@
       <c r="M7" t="s">
         <v>300</v>
       </c>
-      <c r="N7">
-        <v>31</v>
-      </c>
-      <c r="O7">
-        <v>77</v>
-      </c>
-      <c r="P7">
-        <v>83</v>
-      </c>
-      <c r="Q7">
-        <v>160</v>
-      </c>
-      <c r="R7">
-        <v>27</v>
-      </c>
-      <c r="S7">
+      <c r="N7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>29</v>
-      </c>
-      <c r="U7">
+      <c r="T7" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.8125</v>
       </c>
-      <c r="V7">
-        <v>56</v>
+      <c r="V7" t="n">
+        <v>56.0</v>
       </c>
       <c r="W7" t="s">
         <v>317</v>
@@ -27492,36 +27219,36 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8">
-        <v>82</v>
-      </c>
-      <c r="D8">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>130</v>
-      </c>
-      <c r="F8">
-        <v>31</v>
-      </c>
-      <c r="G8">
+      <c r="C8" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.9375</v>
       </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>45</v>
+      <c r="H8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45.0</v>
       </c>
       <c r="K8" t="s">
         <v>266</v>
@@ -27532,32 +27259,32 @@
       <c r="M8" t="s">
         <v>301</v>
       </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="O8">
-        <v>77</v>
-      </c>
-      <c r="P8">
-        <v>78</v>
-      </c>
-      <c r="Q8">
-        <v>155</v>
-      </c>
-      <c r="R8">
-        <v>21</v>
-      </c>
-      <c r="S8">
+      <c r="N8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.3125</v>
       </c>
-      <c r="T8">
-        <v>22</v>
-      </c>
-      <c r="U8">
+      <c r="T8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.5714285714285714</v>
       </c>
-      <c r="V8">
-        <v>43</v>
+      <c r="V8" t="n">
+        <v>43.0</v>
       </c>
       <c r="W8" t="s">
         <v>318</v>
@@ -27569,36 +27296,36 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
-        <v>83</v>
-      </c>
-      <c r="D9">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>131</v>
-      </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-      <c r="G9">
+      <c r="C9" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.2857142857142858</v>
       </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
+      <c r="H9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.1428571428571428</v>
       </c>
-      <c r="J9">
-        <v>34</v>
+      <c r="J9" t="n">
+        <v>34.0</v>
       </c>
       <c r="K9" t="s">
         <v>267</v>
@@ -27609,32 +27336,32 @@
       <c r="M9" t="s">
         <v>302</v>
       </c>
-      <c r="N9">
-        <v>28</v>
-      </c>
-      <c r="O9">
-        <v>56</v>
-      </c>
-      <c r="P9">
-        <v>65</v>
-      </c>
-      <c r="Q9">
-        <v>121</v>
-      </c>
-      <c r="R9">
-        <v>26</v>
-      </c>
-      <c r="S9">
+      <c r="N9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.8571428571428572</v>
       </c>
-      <c r="T9">
-        <v>22</v>
-      </c>
-      <c r="U9">
+      <c r="T9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.5714285714285714</v>
       </c>
-      <c r="V9">
-        <v>48</v>
+      <c r="V9" t="n">
+        <v>48.0</v>
       </c>
       <c r="W9" t="s">
         <v>319</v>
@@ -27646,36 +27373,36 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10">
-        <v>69</v>
-      </c>
-      <c r="D10">
-        <v>77</v>
-      </c>
-      <c r="E10">
-        <v>146</v>
-      </c>
-      <c r="F10">
-        <v>26</v>
-      </c>
-      <c r="G10">
+      <c r="C10" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.7333333333333334</v>
       </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.1875</v>
       </c>
-      <c r="J10">
-        <v>45</v>
+      <c r="J10" t="n">
+        <v>45.0</v>
       </c>
       <c r="K10" t="s">
         <v>268</v>
@@ -27686,32 +27413,32 @@
       <c r="M10" t="s">
         <v>303</v>
       </c>
-      <c r="N10">
-        <v>31</v>
-      </c>
-      <c r="O10">
-        <v>64</v>
-      </c>
-      <c r="P10">
-        <v>74</v>
-      </c>
-      <c r="Q10">
-        <v>138</v>
-      </c>
-      <c r="R10">
-        <v>21</v>
-      </c>
-      <c r="S10">
+      <c r="N10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.4</v>
       </c>
-      <c r="T10">
-        <v>29</v>
-      </c>
-      <c r="U10">
+      <c r="T10" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.8125</v>
       </c>
-      <c r="V10">
-        <v>50</v>
+      <c r="V10" t="n">
+        <v>50.0</v>
       </c>
       <c r="W10" t="s">
         <v>320</v>
@@ -27723,36 +27450,36 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11">
-        <v>95</v>
-      </c>
-      <c r="D11">
-        <v>67</v>
-      </c>
-      <c r="E11">
-        <v>162</v>
-      </c>
-      <c r="F11">
-        <v>33</v>
-      </c>
-      <c r="G11">
+      <c r="C11" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.0625</v>
       </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.2</v>
       </c>
-      <c r="J11">
-        <v>51</v>
+      <c r="J11" t="n">
+        <v>51.0</v>
       </c>
       <c r="K11" t="s">
         <v>269</v>
@@ -27763,32 +27490,32 @@
       <c r="M11" t="s">
         <v>304</v>
       </c>
-      <c r="N11">
-        <v>31</v>
-      </c>
-      <c r="O11">
-        <v>58</v>
-      </c>
-      <c r="P11">
-        <v>47</v>
-      </c>
-      <c r="Q11">
-        <v>105</v>
-      </c>
-      <c r="R11">
-        <v>21</v>
-      </c>
-      <c r="S11">
+      <c r="N11" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.3125</v>
       </c>
-      <c r="T11">
-        <v>14</v>
-      </c>
-      <c r="U11">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="V11">
-        <v>35</v>
+      <c r="T11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="V11" t="n">
+        <v>35.0</v>
       </c>
       <c r="W11" t="s">
         <v>321</v>
@@ -27800,36 +27527,36 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12">
-        <v>56</v>
-      </c>
-      <c r="D12">
-        <v>62</v>
-      </c>
-      <c r="E12">
-        <v>118</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
-      <c r="I12">
+      <c r="C12" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.2666666666666666</v>
       </c>
-      <c r="J12">
-        <v>33</v>
+      <c r="J12" t="n">
+        <v>33.0</v>
       </c>
       <c r="K12" t="s">
         <v>262</v>
@@ -27840,32 +27567,32 @@
       <c r="M12" t="s">
         <v>305</v>
       </c>
-      <c r="N12">
-        <v>30</v>
-      </c>
-      <c r="O12">
-        <v>73</v>
-      </c>
-      <c r="P12">
-        <v>77</v>
-      </c>
-      <c r="Q12">
-        <v>150</v>
-      </c>
-      <c r="R12">
-        <v>22</v>
-      </c>
-      <c r="S12">
+      <c r="N12" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.4666666666666666</v>
       </c>
-      <c r="T12">
-        <v>27</v>
-      </c>
-      <c r="U12">
+      <c r="T12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.8</v>
       </c>
-      <c r="V12">
-        <v>49</v>
+      <c r="V12" t="n">
+        <v>49.0</v>
       </c>
       <c r="W12" t="s">
         <v>322</v>
@@ -27877,36 +27604,36 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13">
-        <v>81</v>
-      </c>
-      <c r="D13">
-        <v>82</v>
-      </c>
-      <c r="E13">
-        <v>163</v>
-      </c>
-      <c r="F13">
-        <v>31</v>
-      </c>
-      <c r="G13">
+      <c r="C13" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.9375</v>
       </c>
-      <c r="H13">
-        <v>28</v>
-      </c>
-      <c r="I13">
+      <c r="H13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.8666666666666667</v>
       </c>
-      <c r="J13">
-        <v>59</v>
+      <c r="J13" t="n">
+        <v>59.0</v>
       </c>
       <c r="K13" t="s">
         <v>270</v>
@@ -27917,32 +27644,32 @@
       <c r="M13" t="s">
         <v>306</v>
       </c>
-      <c r="N13">
-        <v>31</v>
-      </c>
-      <c r="O13">
-        <v>66</v>
-      </c>
-      <c r="P13">
-        <v>75</v>
-      </c>
-      <c r="Q13">
-        <v>141</v>
-      </c>
-      <c r="R13">
-        <v>17</v>
-      </c>
-      <c r="S13">
+      <c r="N13" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.0625</v>
       </c>
-      <c r="T13">
-        <v>29</v>
-      </c>
-      <c r="U13">
+      <c r="T13" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.9333333333333333</v>
       </c>
-      <c r="V13">
-        <v>46</v>
+      <c r="V13" t="n">
+        <v>46.0</v>
       </c>
       <c r="W13" t="s">
         <v>323</v>
@@ -27954,36 +27681,36 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
-        <v>104</v>
-      </c>
-      <c r="D14">
-        <v>87</v>
-      </c>
-      <c r="E14">
-        <v>191</v>
-      </c>
-      <c r="F14">
-        <v>27</v>
-      </c>
-      <c r="G14">
+      <c r="C14" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.6875</v>
       </c>
-      <c r="H14">
-        <v>28</v>
-      </c>
-      <c r="I14">
+      <c r="H14" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.8666666666666667</v>
       </c>
-      <c r="J14">
-        <v>55</v>
+      <c r="J14" t="n">
+        <v>55.0</v>
       </c>
       <c r="K14" t="s">
         <v>271</v>
@@ -27994,32 +27721,32 @@
       <c r="M14" t="s">
         <v>307</v>
       </c>
-      <c r="N14">
-        <v>31</v>
-      </c>
-      <c r="O14">
-        <v>37</v>
-      </c>
-      <c r="P14">
-        <v>40</v>
-      </c>
-      <c r="Q14">
-        <v>77</v>
-      </c>
-      <c r="R14">
-        <v>11</v>
-      </c>
-      <c r="S14">
+      <c r="N14" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.6875</v>
       </c>
-      <c r="T14">
-        <v>14</v>
-      </c>
-      <c r="U14">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="V14">
-        <v>25</v>
+      <c r="T14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="V14" t="n">
+        <v>25.0</v>
       </c>
       <c r="W14" t="s">
         <v>324</v>
@@ -28031,36 +27758,36 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <v>81</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15">
+      <c r="C15" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.6</v>
       </c>
-      <c r="H15">
-        <v>9</v>
-      </c>
-      <c r="I15">
+      <c r="H15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.6</v>
       </c>
-      <c r="J15">
-        <v>18</v>
+      <c r="J15" t="n">
+        <v>18.0</v>
       </c>
       <c r="K15" t="s">
         <v>272</v>
@@ -28071,32 +27798,32 @@
       <c r="M15" t="s">
         <v>308</v>
       </c>
-      <c r="N15">
-        <v>30</v>
-      </c>
-      <c r="O15">
-        <v>97</v>
-      </c>
-      <c r="P15">
-        <v>108</v>
-      </c>
-      <c r="Q15">
-        <v>205</v>
-      </c>
-      <c r="R15">
-        <v>29</v>
-      </c>
-      <c r="S15">
+      <c r="N15" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.9333333333333333</v>
       </c>
-      <c r="T15">
-        <v>47</v>
-      </c>
-      <c r="U15">
+      <c r="T15" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="U15" t="n">
         <v>3.1333333333333333</v>
       </c>
-      <c r="V15">
-        <v>76</v>
+      <c r="V15" t="n">
+        <v>76.0</v>
       </c>
       <c r="W15" t="s">
         <v>325</v>
@@ -28108,36 +27835,36 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16">
-        <v>66</v>
-      </c>
-      <c r="D16">
-        <v>83</v>
-      </c>
-      <c r="E16">
-        <v>149</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16">
+      <c r="C16" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H16">
-        <v>27</v>
-      </c>
-      <c r="I16">
+      <c r="H16" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.6875</v>
       </c>
-      <c r="J16">
-        <v>52</v>
+      <c r="J16" t="n">
+        <v>52.0</v>
       </c>
       <c r="K16" t="s">
         <v>273</v>
@@ -28148,32 +27875,32 @@
       <c r="M16" t="s">
         <v>309</v>
       </c>
-      <c r="N16">
-        <v>31</v>
-      </c>
-      <c r="O16">
-        <v>79</v>
-      </c>
-      <c r="P16">
-        <v>81</v>
-      </c>
-      <c r="Q16">
-        <v>160</v>
-      </c>
-      <c r="R16">
-        <v>23</v>
-      </c>
-      <c r="S16">
+      <c r="N16" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.5333333333333334</v>
       </c>
-      <c r="T16">
-        <v>28</v>
-      </c>
-      <c r="U16">
+      <c r="T16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.75</v>
       </c>
-      <c r="V16">
-        <v>51</v>
+      <c r="V16" t="n">
+        <v>51.0</v>
       </c>
       <c r="W16" t="s">
         <v>326</v>
@@ -28185,36 +27912,36 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
-        <v>79</v>
-      </c>
-      <c r="D17">
-        <v>55</v>
-      </c>
-      <c r="E17">
-        <v>134</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17">
+      <c r="C17" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.875</v>
       </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
-      <c r="I17">
+      <c r="H17" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.1333333333333333</v>
       </c>
-      <c r="J17">
-        <v>47</v>
+      <c r="J17" t="n">
+        <v>47.0</v>
       </c>
       <c r="K17" t="s">
         <v>274</v>
@@ -28225,32 +27952,32 @@
       <c r="M17" t="s">
         <v>310</v>
       </c>
-      <c r="N17">
-        <v>31</v>
-      </c>
-      <c r="O17">
-        <v>55</v>
-      </c>
-      <c r="P17">
-        <v>69</v>
-      </c>
-      <c r="Q17">
-        <v>124</v>
-      </c>
-      <c r="R17">
-        <v>17</v>
-      </c>
-      <c r="S17">
+      <c r="N17" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.0625</v>
       </c>
-      <c r="T17">
-        <v>21</v>
-      </c>
-      <c r="U17">
+      <c r="T17" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.4</v>
       </c>
-      <c r="V17">
-        <v>38</v>
+      <c r="V17" t="n">
+        <v>38.0</v>
       </c>
       <c r="W17" t="s">
         <v>292</v>
@@ -28262,36 +27989,36 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18">
-        <v>58</v>
-      </c>
-      <c r="D18">
-        <v>59</v>
-      </c>
-      <c r="E18">
-        <v>117</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="I18">
+      <c r="C18" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.25</v>
       </c>
-      <c r="J18">
-        <v>34</v>
+      <c r="J18" t="n">
+        <v>34.0</v>
       </c>
       <c r="K18" t="s">
         <v>275</v>
@@ -28302,32 +28029,32 @@
       <c r="M18" t="s">
         <v>311</v>
       </c>
-      <c r="N18">
-        <v>31</v>
-      </c>
-      <c r="O18">
-        <v>65</v>
-      </c>
-      <c r="P18">
-        <v>84</v>
-      </c>
-      <c r="Q18">
-        <v>149</v>
-      </c>
-      <c r="R18">
-        <v>24</v>
-      </c>
-      <c r="S18">
+      <c r="N18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.6</v>
       </c>
-      <c r="T18">
-        <v>27</v>
-      </c>
-      <c r="U18">
+      <c r="T18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.6875</v>
       </c>
-      <c r="V18">
-        <v>51</v>
+      <c r="V18" t="n">
+        <v>51.0</v>
       </c>
       <c r="W18" t="s">
         <v>327</v>
@@ -28339,36 +28066,36 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
-        <v>71</v>
-      </c>
-      <c r="D19">
-        <v>84</v>
-      </c>
-      <c r="E19">
-        <v>155</v>
-      </c>
-      <c r="F19">
-        <v>27</v>
-      </c>
-      <c r="G19">
+      <c r="C19" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.8</v>
       </c>
-      <c r="H19">
-        <v>27</v>
-      </c>
-      <c r="I19">
+      <c r="H19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.6875</v>
       </c>
-      <c r="J19">
-        <v>54</v>
+      <c r="J19" t="n">
+        <v>54.0</v>
       </c>
       <c r="K19" t="s">
         <v>276</v>
@@ -28379,32 +28106,32 @@
       <c r="M19" t="s">
         <v>312</v>
       </c>
-      <c r="N19">
-        <v>31</v>
-      </c>
-      <c r="O19">
-        <v>51</v>
-      </c>
-      <c r="P19">
-        <v>62</v>
-      </c>
-      <c r="Q19">
-        <v>113</v>
-      </c>
-      <c r="R19">
-        <v>13</v>
-      </c>
-      <c r="S19">
+      <c r="N19" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S19" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="T19">
-        <v>19</v>
-      </c>
-      <c r="U19">
+      <c r="T19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.1875</v>
       </c>
-      <c r="V19">
-        <v>32</v>
+      <c r="V19" t="n">
+        <v>32.0</v>
       </c>
       <c r="W19" t="s">
         <v>328</v>
@@ -28417,28 +28144,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="88.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>356</v>
       </c>
@@ -28455,7 +28174,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -28475,7 +28194,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -28495,7 +28214,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -28515,7 +28234,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -28535,7 +28254,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -28555,7 +28274,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -28575,7 +28294,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -28595,7 +28314,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -28615,7 +28334,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -28635,7 +28354,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -28655,7 +28374,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -28675,7 +28394,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -28695,7 +28414,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -28715,7 +28434,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -28735,7 +28454,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -28755,7 +28474,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -28775,7 +28494,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -28795,7 +28514,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -28816,6 +28535,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Divisions/D1.xlsx
+++ b/Divisions/D1.xlsx
@@ -780,382 +780,382 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Augsburg,L D W L L D</t>
-  </si>
-  <si>
-    <t>Bayern Munich,W W W W L W</t>
-  </si>
-  <si>
-    <t>Bielefeld,D L D L L D</t>
-  </si>
-  <si>
-    <t>Bochum,L L L D L W</t>
-  </si>
-  <si>
-    <t>Dortmund,W W W L W W</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,D D D D W L</t>
-  </si>
-  <si>
-    <t>FC Koln,W D D D W L</t>
-  </si>
-  <si>
-    <t>Freiburg,W D D W W D</t>
-  </si>
-  <si>
-    <t>Greuther Furth,L L L L L L</t>
-  </si>
-  <si>
-    <t>Hertha,L W W L L W</t>
-  </si>
-  <si>
-    <t>Hoffenheim,L L D W L W</t>
-  </si>
-  <si>
-    <t>Leverkusen,W L W W W L</t>
-  </si>
-  <si>
-    <t>Mainz,W W D L L L</t>
-  </si>
-  <si>
-    <t>Mgladbach,L W L W W D</t>
-  </si>
-  <si>
-    <t>RB Leipzig,L L D W W D</t>
-  </si>
-  <si>
-    <t>Stuttgart,L D L D W D</t>
-  </si>
-  <si>
-    <t>Union Berlin,W D L W W W</t>
-  </si>
-  <si>
-    <t>Wolfsburg,W W D L L L</t>
-  </si>
-  <si>
-    <t>Augsburg,1 0 1 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,5 4 7 3 1 5,(25)</t>
-  </si>
-  <si>
-    <t>Bielefeld,1 1 0 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Bochum,1 1 0 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Dortmund,3 4 4 0 2 3,(16)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,1 1 1 1 2 1,(7)</t>
-  </si>
-  <si>
-    <t>FC Koln,2 1 1 1 3 0,(8)</t>
-  </si>
-  <si>
-    <t>Freiburg,3 1 0 3 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,0 0 1 1 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Hertha,0 3 2 0 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,2 0 0 3 1 5,(11)</t>
-  </si>
-  <si>
-    <t>Leverkusen,4 3 3 1 4 1,(16)</t>
-  </si>
-  <si>
-    <t>Mainz,3 2 0 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Mgladbach,1 3 0 1 3 1,(9)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,0 1 1 6 3 1,(12)</t>
-  </si>
-  <si>
-    <t>Stuttgart,2 1 1 0 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Union Berlin,2 0 2 1 2 2,(9)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,1 2 1 1 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Augsburg,4 0 0 3 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,0 1 0 1 2 1,(5)</t>
-  </si>
-  <si>
-    <t>Bielefeld,1 3 0 1 4 1,(10)</t>
-  </si>
-  <si>
-    <t>Bochum,2 3 7 0 3 0,(15)</t>
-  </si>
-  <si>
-    <t>Dortmund,2 3 2 1 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,1 1 1 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>FC Koln,1 1 1 1 1 5,(10)</t>
-  </si>
-  <si>
-    <t>Freiburg,2 1 0 0 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,3 2 2 3 3 1,(14)</t>
-  </si>
-  <si>
-    <t>Hertha,5 1 1 6 2 1,(16)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,3 2 0 1 3 0,(9)</t>
-  </si>
-  <si>
-    <t>Leverkusen,1 4 1 0 0 5,(11)</t>
-  </si>
-  <si>
-    <t>Mainz,0 0 0 1 2 3,(6)</t>
-  </si>
-  <si>
-    <t>Mgladbach,2 1 1 0 1 1,(6)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,1 4 1 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Stuttgart,3 1 3 0 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Union Berlin,1 0 4 0 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,0 0 1 3 3 2,(9)</t>
-  </si>
-  <si>
-    <t>Augsburg,5 0 1 3 3 2,(14)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,5 5 7 4 3 6,(30)</t>
-  </si>
-  <si>
-    <t>Bielefeld,2 4 0 1 4 2,(13)</t>
-  </si>
-  <si>
-    <t>Bochum,3 4 7 0 3 1,(18)</t>
-  </si>
-  <si>
-    <t>Dortmund,5 7 6 1 3 4,(26)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,2 2 2 2 3 3,(14)</t>
-  </si>
-  <si>
-    <t>FC Koln,3 2 2 2 4 5,(18)</t>
-  </si>
-  <si>
-    <t>Freiburg,5 2 0 3 3 2,(15)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,3 2 3 4 4 1,(17)</t>
-  </si>
-  <si>
-    <t>Hertha,5 4 3 6 3 3,(24)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,5 2 0 4 4 5,(20)</t>
-  </si>
-  <si>
-    <t>Leverkusen,5 7 4 1 4 6,(27)</t>
-  </si>
-  <si>
-    <t>Mainz,3 2 0 1 3 4,(13)</t>
-  </si>
-  <si>
-    <t>Mgladbach,3 4 1 1 4 2,(15)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,1 5 2 6 3 2,(19)</t>
-  </si>
-  <si>
-    <t>Stuttgart,5 2 4 0 4 2,(17)</t>
-  </si>
-  <si>
-    <t>Union Berlin,3 0 6 1 3 2,(15)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,1 2 2 4 4 2,(15)</t>
-  </si>
-  <si>
-    <t>Augsburg,1-4 0-0 1-0 3-0 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Bayern Munich,5-0 1-4 7-0 1-3 1-2 1-5</t>
-  </si>
-  <si>
-    <t>Bielefeld,1-1 3-1 0-0 1-0 0-4 1-1</t>
-  </si>
-  <si>
-    <t>Bochum,2-1 1-3 7-0 0-0 3-0 0-1</t>
-  </si>
-  <si>
-    <t>Dortmund,3-2 3-4 4-2 1-0 2-1 3-1</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,1-1 1-1 1-1 1-1 1-2 1-2</t>
-  </si>
-  <si>
-    <t>FC Koln,2-1 1-1 1-1 1-1 3-1 5-0</t>
-  </si>
-  <si>
-    <t>Freiburg,2-3 1-1 0-0 3-0 1-2 1-1</t>
-  </si>
-  <si>
-    <t>Greuther Furth,3-0 0-2 2-1 1-3 3-1 0-1</t>
-  </si>
-  <si>
-    <t>Hertha,5-0 1-3 2-1 6-0 1-2 1-2</t>
-  </si>
-  <si>
-    <t>Hoffenheim,3-2 0-2 0-0 3-1 3-1 5-0</t>
-  </si>
-  <si>
-    <t>Leverkusen,1-4 3-4 1-3 1-0 0-4 1-5</t>
-  </si>
-  <si>
-    <t>Mainz,3-0 0-2 0-0 1-0 1-2 3-1</t>
-  </si>
-  <si>
-    <t>Mgladbach,2-1 3-1 1-0 1-0 1-3 1-1</t>
-  </si>
-  <si>
-    <t>RB Leipzig,1-0 1-4 1-1 6-0 3-0 1-1</t>
-  </si>
-  <si>
-    <t>Stuttgart,2-3 1-1 1-3 0-0 3-1 1-1</t>
-  </si>
-  <si>
-    <t>Union Berlin,2-1 0-0 4-2 1-0 1-2 2-0</t>
-  </si>
-  <si>
-    <t>Wolfsburg,1-0 0-2 1-1 3-1 1-3 2-0</t>
-  </si>
-  <si>
-    <t>Augsburg,-3 0 1 -3 -1 0,(-6)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,5 3 7 2 -1 4,(20)</t>
-  </si>
-  <si>
-    <t>Bielefeld,0 -2 0 -1 -4 0,(-7)</t>
-  </si>
-  <si>
-    <t>Bochum,-1 -2 -7 0 -3 1,(-12)</t>
-  </si>
-  <si>
-    <t>Dortmund,1 1 2 -1 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,0 0 0 0 1 -1,(0)</t>
-  </si>
-  <si>
-    <t>FC Koln,1 0 0 0 2 -5,(-2)</t>
-  </si>
-  <si>
-    <t>Freiburg,1 0 0 3 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,-3 -2 -1 -2 -2 -1,(-11)</t>
-  </si>
-  <si>
-    <t>Hertha,-5 2 1 -6 -1 1,(-8)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,-1 -2 0 2 -2 5,(2)</t>
-  </si>
-  <si>
-    <t>Leverkusen,3 -1 2 1 4 -4,(5)</t>
-  </si>
-  <si>
-    <t>Mainz,3 2 0 -1 -1 -2,(1)</t>
-  </si>
-  <si>
-    <t>Mgladbach,-1 2 -1 1 2 0,(3)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,-1 -3 0 6 3 0,(5)</t>
-  </si>
-  <si>
-    <t>Stuttgart,-1 0 -2 0 2 0,(-1)</t>
-  </si>
-  <si>
-    <t>Union Berlin,1 0 -2 1 1 2,(3)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,1 2 0 -2 -2 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Augsburg,Leverkusen(4) Union Berlin(5) Mgladbach(9) Freiburg(3) Dortmund(2) Bielefeld(17)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,Hertha(12) RB Leipzig(10) Bochum(15) Greuther Furth(18) Ein Frankfurt(14) Leverkusen(4)</t>
-  </si>
-  <si>
-    <t>Bielefeld,Ein Frankfurt(14) Mgladbach(9) Hoffenheim(8) Union Berlin(5) Leverkusen(4) Augsburg(16)</t>
-  </si>
-  <si>
-    <t>Bochum,FC Koln(7) Hertha(12) Bayern Munich(1) Stuttgart(13) RB Leipzig(10) Greuther Furth(18)</t>
-  </si>
-  <si>
-    <t>Dortmund,Hoffenheim(8) Leverkusen(4) Union Berlin(5) Mgladbach(9) Augsburg(16) Mainz(11)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,Bielefeld(17) Stuttgart(13) Wolfsburg(6) FC Koln(7) Bayern Munich(1) Hertha(12)</t>
-  </si>
-  <si>
-    <t>FC Koln,Bochum(15) Freiburg(3) RB Leipzig(10) Ein Frankfurt(14) Greuther Furth(18) Hoffenheim(8)</t>
-  </si>
-  <si>
-    <t>Freiburg,Stuttgart(13) FC Koln(7) Mainz(11) Augsburg(16) Hertha(12) RB Leipzig(10)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,Mainz(11) Wolfsburg(6) Hertha(12) Bayern Munich(1) FC Koln(7) Bochum(15)</t>
-  </si>
-  <si>
-    <t>Hertha,Bayern Munich(1) Bochum(15) Greuther Furth(18) RB Leipzig(10) Freiburg(3) Ein Frankfurt(14)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,Dortmund(2) Mainz(11) Bielefeld(17) Wolfsburg(6) Stuttgart(13) FC Koln(7)</t>
-  </si>
-  <si>
-    <t>Leverkusen,Augsburg(16) Dortmund(2) Stuttgart(13) Mainz(11) Bielefeld(17) Bayern Munich(1)</t>
-  </si>
-  <si>
-    <t>Mainz,Greuther Furth(18) Hoffenheim(8) Freiburg(3) Leverkusen(4) Union Berlin(5) Dortmund(2)</t>
-  </si>
-  <si>
-    <t>Mgladbach,Union Berlin(5) Bielefeld(17) Augsburg(16) Dortmund(2) Wolfsburg(6) Stuttgart(13)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,Wolfsburg(6) Bayern Munich(1) FC Koln(7) Hertha(12) Bochum(15) Freiburg(3)</t>
-  </si>
-  <si>
-    <t>Stuttgart,Freiburg(3) Ein Frankfurt(14) Leverkusen(4) Bochum(15) Hoffenheim(8) Mgladbach(9)</t>
-  </si>
-  <si>
-    <t>Union Berlin,Mgladbach(9) Augsburg(16) Dortmund(2) Bielefeld(17) Mainz(11) Wolfsburg(6)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,RB Leipzig(10) Greuther Furth(18) Ein Frankfurt(14) Hoffenheim(8) Mgladbach(9) Union Berlin(5)</t>
+    <t>Augsburg,L D L D W L L D</t>
+  </si>
+  <si>
+    <t>Bayern Munich,D W W W W W L W</t>
+  </si>
+  <si>
+    <t>Bielefeld,D D D L D L L D</t>
+  </si>
+  <si>
+    <t>Bochum,L W L L L D L W</t>
+  </si>
+  <si>
+    <t>Dortmund,W L W W W L W W</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,L D D D D D W L</t>
+  </si>
+  <si>
+    <t>FC Koln,W L W D D D W L</t>
+  </si>
+  <si>
+    <t>Freiburg,D W W D D W W D</t>
+  </si>
+  <si>
+    <t>Greuther Furth,L D L L L L L L</t>
+  </si>
+  <si>
+    <t>Hertha,L L L W W L L W</t>
+  </si>
+  <si>
+    <t>Hoffenheim,W D L L D W L W</t>
+  </si>
+  <si>
+    <t>Leverkusen,D W W L W W W L</t>
+  </si>
+  <si>
+    <t>Mainz,W L W W D L L L</t>
+  </si>
+  <si>
+    <t>Mgladbach,D L L W L W W D</t>
+  </si>
+  <si>
+    <t>RB Leipzig,L W L L D W W D</t>
+  </si>
+  <si>
+    <t>Stuttgart,W L L D L D W D</t>
+  </si>
+  <si>
+    <t>Union Berlin,D D W D L W W W</t>
+  </si>
+  <si>
+    <t>Wolfsburg,W W W W D L L L</t>
+  </si>
+  <si>
+    <t>Augsburg,0 0 1 0 1 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,1 3 5 4 7 3 1 5,(29)</t>
+  </si>
+  <si>
+    <t>Bielefeld,0 1 1 1 0 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Bochum,0 2 1 1 0 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Dortmund,5 1 3 4 4 0 2 3,(22)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,2 0 1 1 1 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>FC Koln,3 2 2 1 1 1 3 0,(13)</t>
+  </si>
+  <si>
+    <t>Freiburg,0 2 3 1 0 3 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,1 1 0 0 1 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Hertha,1 1 0 3 2 0 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,4 2 2 0 0 3 1 5,(17)</t>
+  </si>
+  <si>
+    <t>Leverkusen,1 4 4 3 3 1 4 1,(21)</t>
+  </si>
+  <si>
+    <t>Mainz,1 0 3 2 0 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Mgladbach,1 0 1 3 0 1 3 1,(10)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,0 4 0 1 1 6 3 1,(16)</t>
+  </si>
+  <si>
+    <t>Stuttgart,5 0 2 1 1 0 3 1,(13)</t>
+  </si>
+  <si>
+    <t>Union Berlin,1 2 2 0 2 1 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1 2 1 2 1 1 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Augsburg,4 0 4 0 0 3 2 1,(14)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,1 2 0 1 0 1 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Bielefeld,0 1 1 3 0 1 4 1,(11)</t>
+  </si>
+  <si>
+    <t>Bochum,1 0 2 3 7 0 3 0,(16)</t>
+  </si>
+  <si>
+    <t>Dortmund,2 2 2 3 2 1 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,5 0 1 1 1 1 1 2,(12)</t>
+  </si>
+  <si>
+    <t>FC Koln,1 3 1 1 1 1 1 5,(14)</t>
+  </si>
+  <si>
+    <t>Freiburg,0 1 2 1 0 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,5 1 3 2 2 3 3 1,(20)</t>
+  </si>
+  <si>
+    <t>Hertha,3 2 5 1 1 6 2 1,(21)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,0 2 3 2 0 1 3 0,(11)</t>
+  </si>
+  <si>
+    <t>Leverkusen,1 0 1 4 1 0 0 5,(12)</t>
+  </si>
+  <si>
+    <t>Mainz,0 2 0 0 0 1 2 3,(8)</t>
+  </si>
+  <si>
+    <t>Mgladbach,1 4 2 1 1 0 1 1,(11)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1 0 1 4 1 0 0 1,(8)</t>
+  </si>
+  <si>
+    <t>Stuttgart,1 4 3 1 3 0 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Union Berlin,1 2 1 0 4 0 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,0 1 0 0 1 3 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Augsburg,4 0 5 0 1 3 3 2,(18)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,2 5 5 5 7 4 3 6,(37)</t>
+  </si>
+  <si>
+    <t>Bielefeld,0 2 2 4 0 1 4 2,(15)</t>
+  </si>
+  <si>
+    <t>Bochum,1 2 3 4 7 0 3 1,(21)</t>
+  </si>
+  <si>
+    <t>Dortmund,7 3 5 7 6 1 3 4,(36)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,7 0 2 2 2 2 3 3,(21)</t>
+  </si>
+  <si>
+    <t>FC Koln,4 5 3 2 2 2 4 5,(27)</t>
+  </si>
+  <si>
+    <t>Freiburg,0 3 5 2 0 3 3 2,(18)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,6 2 3 2 3 4 4 1,(25)</t>
+  </si>
+  <si>
+    <t>Hertha,4 3 5 4 3 6 3 3,(31)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,4 4 5 2 0 4 4 5,(28)</t>
+  </si>
+  <si>
+    <t>Leverkusen,2 4 5 7 4 1 4 6,(33)</t>
+  </si>
+  <si>
+    <t>Mainz,1 2 3 2 0 1 3 4,(16)</t>
+  </si>
+  <si>
+    <t>Mgladbach,2 4 3 4 1 1 4 2,(21)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1 4 1 5 2 6 3 2,(24)</t>
+  </si>
+  <si>
+    <t>Stuttgart,6 4 5 2 4 0 4 2,(27)</t>
+  </si>
+  <si>
+    <t>Union Berlin,2 4 3 0 6 1 3 2,(21)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1 3 1 2 2 4 4 2,(19)</t>
+  </si>
+  <si>
+    <t>Augsburg,0-4 0-0 1-4 0-0 1-0 3-0 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Bayern Munich,1-1 3-2 5-0 1-4 7-0 1-3 1-2 1-5</t>
+  </si>
+  <si>
+    <t>Bielefeld,0-0 1-1 1-1 3-1 0-0 1-0 0-4 1-1</t>
+  </si>
+  <si>
+    <t>Bochum,1-0 2-0 2-1 1-3 7-0 0-0 3-0 0-1</t>
+  </si>
+  <si>
+    <t>Dortmund,5-2 2-1 3-2 3-4 4-2 1-0 2-1 3-1</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,5-2 0-0 1-1 1-1 1-1 1-1 1-2 1-2</t>
+  </si>
+  <si>
+    <t>FC Koln,3-1 3-2 2-1 1-1 1-1 1-1 3-1 5-0</t>
+  </si>
+  <si>
+    <t>Freiburg,0-0 2-1 2-3 1-1 0-0 3-0 1-2 1-1</t>
+  </si>
+  <si>
+    <t>Greuther Furth,5-1 1-1 3-0 0-2 2-1 1-3 3-1 0-1</t>
+  </si>
+  <si>
+    <t>Hertha,3-1 1-2 5-0 1-3 2-1 6-0 1-2 1-2</t>
+  </si>
+  <si>
+    <t>Hoffenheim,0-4 2-2 3-2 0-2 0-0 3-1 3-1 5-0</t>
+  </si>
+  <si>
+    <t>Leverkusen,1-1 4-0 1-4 3-4 1-3 1-0 0-4 1-5</t>
+  </si>
+  <si>
+    <t>Mainz,1-0 2-0 3-0 0-2 0-0 1-0 1-2 3-1</t>
+  </si>
+  <si>
+    <t>Mgladbach,1-1 4-0 2-1 3-1 1-0 1-0 1-3 1-1</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1-0 4-0 1-0 1-4 1-1 6-0 3-0 1-1</t>
+  </si>
+  <si>
+    <t>Stuttgart,5-1 4-0 2-3 1-1 1-3 0-0 3-1 1-1</t>
+  </si>
+  <si>
+    <t>Union Berlin,1-1 2-2 2-1 0-0 4-2 1-0 1-2 2-0</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1-0 1-2 1-0 0-2 1-1 3-1 1-3 2-0</t>
+  </si>
+  <si>
+    <t>Augsburg,-4 0 -3 0 1 -3 -1 0,(-10)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,0 1 5 3 7 2 -1 4,(21)</t>
+  </si>
+  <si>
+    <t>Bielefeld,0 0 0 -2 0 -1 -4 0,(-7)</t>
+  </si>
+  <si>
+    <t>Bochum,-1 2 -1 -2 -7 0 -3 1,(-11)</t>
+  </si>
+  <si>
+    <t>Dortmund,3 -1 1 1 2 -1 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,-3 0 0 0 0 0 1 -1,(-3)</t>
+  </si>
+  <si>
+    <t>FC Koln,2 -1 1 0 0 0 2 -5,(-1)</t>
+  </si>
+  <si>
+    <t>Freiburg,0 1 1 0 0 3 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,-4 0 -3 -2 -1 -2 -2 -1,(-15)</t>
+  </si>
+  <si>
+    <t>Hertha,-2 -1 -5 2 1 -6 -1 1,(-11)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,4 0 -1 -2 0 2 -2 5,(6)</t>
+  </si>
+  <si>
+    <t>Leverkusen,0 4 3 -1 2 1 4 -4,(9)</t>
+  </si>
+  <si>
+    <t>Mainz,1 -2 3 2 0 -1 -1 -2,(0)</t>
+  </si>
+  <si>
+    <t>Mgladbach,0 -4 -1 2 -1 1 2 0,(-1)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,-1 4 -1 -3 0 6 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Stuttgart,4 -4 -1 0 -2 0 2 0,(-1)</t>
+  </si>
+  <si>
+    <t>Union Berlin,0 0 1 0 -2 1 1 2,(3)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1 1 1 2 0 -2 -2 -2,(-1)</t>
+  </si>
+  <si>
+    <t>Augsburg,Hoffenheim(8) Ein Frankfurt(14) Leverkusen(4) Union Berlin(5) Mgladbach(9) Freiburg(3) Dortmund(2) Bielefeld(17)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,Mgladbach(9) FC Koln(7) Hertha(12) RB Leipzig(10) Bochum(15) Greuther Furth(18) Ein Frankfurt(14) Leverkusen(4)</t>
+  </si>
+  <si>
+    <t>Bielefeld,Freiburg(3) Greuther Furth(18) Ein Frankfurt(14) Mgladbach(9) Hoffenheim(8) Union Berlin(5) Leverkusen(4) Augsburg(16)</t>
+  </si>
+  <si>
+    <t>Bochum,Wolfsburg(6) Mainz(11) FC Koln(7) Hertha(12) Bayern Munich(1) Stuttgart(13) RB Leipzig(10) Greuther Furth(18)</t>
+  </si>
+  <si>
+    <t>Dortmund,Ein Frankfurt(14) Freiburg(3) Hoffenheim(8) Leverkusen(4) Union Berlin(5) Mgladbach(9) Augsburg(16) Mainz(11)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,Dortmund(2) Augsburg(16) Bielefeld(17) Stuttgart(13) Wolfsburg(6) FC Koln(7) Bayern Munich(1) Hertha(12)</t>
+  </si>
+  <si>
+    <t>FC Koln,Hertha(12) Bayern Munich(1) Bochum(15) Freiburg(3) RB Leipzig(10) Ein Frankfurt(14) Greuther Furth(18) Hoffenheim(8)</t>
+  </si>
+  <si>
+    <t>Freiburg,Bielefeld(17) Dortmund(2) Stuttgart(13) FC Koln(7) Mainz(11) Augsburg(16) Hertha(12) RB Leipzig(10)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,Stuttgart(13) Bielefeld(17) Mainz(11) Wolfsburg(6) Hertha(12) Bayern Munich(1) FC Koln(7) Bochum(15)</t>
+  </si>
+  <si>
+    <t>Hertha,FC Koln(7) Wolfsburg(6) Bayern Munich(1) Bochum(15) Greuther Furth(18) RB Leipzig(10) Freiburg(3) Ein Frankfurt(14)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,Augsburg(16) Union Berlin(5) Dortmund(2) Mainz(11) Bielefeld(17) Wolfsburg(6) Stuttgart(13) FC Koln(7)</t>
+  </si>
+  <si>
+    <t>Leverkusen,Union Berlin(5) Mgladbach(9) Augsburg(16) Dortmund(2) Stuttgart(13) Mainz(11) Bielefeld(17) Bayern Munich(1)</t>
+  </si>
+  <si>
+    <t>Mainz,RB Leipzig(10) Bochum(15) Greuther Furth(18) Hoffenheim(8) Freiburg(3) Leverkusen(4) Union Berlin(5) Dortmund(2)</t>
+  </si>
+  <si>
+    <t>Mgladbach,Bayern Munich(1) Leverkusen(4) Union Berlin(5) Bielefeld(17) Augsburg(16) Dortmund(2) Wolfsburg(6) Stuttgart(13)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,Mainz(11) Stuttgart(13) Wolfsburg(6) Bayern Munich(1) FC Koln(7) Hertha(12) Bochum(15) Freiburg(3)</t>
+  </si>
+  <si>
+    <t>Stuttgart,Greuther Furth(18) RB Leipzig(10) Freiburg(3) Ein Frankfurt(14) Leverkusen(4) Bochum(15) Hoffenheim(8) Mgladbach(9)</t>
+  </si>
+  <si>
+    <t>Union Berlin,Leverkusen(4) Hoffenheim(8) Mgladbach(9) Augsburg(16) Dortmund(2) Bielefeld(17) Mainz(11) Wolfsburg(6)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,Bochum(15) Hertha(12) RB Leipzig(10) Greuther Furth(18) Ein Frankfurt(14) Hoffenheim(8) Mgladbach(9) Union Berlin(5)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/D1.xlsx
+++ b/Divisions/D1.xlsx
@@ -780,382 +780,382 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Augsburg,L D L D W L L D</t>
-  </si>
-  <si>
-    <t>Bayern Munich,D W W W W W L W</t>
-  </si>
-  <si>
-    <t>Bielefeld,D D D L D L L D</t>
-  </si>
-  <si>
-    <t>Bochum,L W L L L D L W</t>
-  </si>
-  <si>
-    <t>Dortmund,W L W W W L W W</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,L D D D D D W L</t>
-  </si>
-  <si>
-    <t>FC Koln,W L W D D D W L</t>
-  </si>
-  <si>
-    <t>Freiburg,D W W D D W W D</t>
-  </si>
-  <si>
-    <t>Greuther Furth,L D L L L L L L</t>
-  </si>
-  <si>
-    <t>Hertha,L L L W W L L W</t>
-  </si>
-  <si>
-    <t>Hoffenheim,W D L L D W L W</t>
-  </si>
-  <si>
-    <t>Leverkusen,D W W L W W W L</t>
-  </si>
-  <si>
-    <t>Mainz,W L W W D L L L</t>
-  </si>
-  <si>
-    <t>Mgladbach,D L L W L W W D</t>
-  </si>
-  <si>
-    <t>RB Leipzig,L W L L D W W D</t>
-  </si>
-  <si>
-    <t>Stuttgart,W L L D L D W D</t>
-  </si>
-  <si>
-    <t>Union Berlin,D D W D L W W W</t>
-  </si>
-  <si>
-    <t>Wolfsburg,W W W W D L L L</t>
-  </si>
-  <si>
-    <t>Augsburg,0 0 1 0 1 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,1 3 5 4 7 3 1 5,(29)</t>
-  </si>
-  <si>
-    <t>Bielefeld,0 1 1 1 0 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Bochum,0 2 1 1 0 0 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Dortmund,5 1 3 4 4 0 2 3,(22)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,2 0 1 1 1 1 2 1,(9)</t>
-  </si>
-  <si>
-    <t>FC Koln,3 2 2 1 1 1 3 0,(13)</t>
-  </si>
-  <si>
-    <t>Freiburg,0 2 3 1 0 3 2 1,(12)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,1 1 0 0 1 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Hertha,1 1 0 3 2 0 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,4 2 2 0 0 3 1 5,(17)</t>
-  </si>
-  <si>
-    <t>Leverkusen,1 4 4 3 3 1 4 1,(21)</t>
-  </si>
-  <si>
-    <t>Mainz,1 0 3 2 0 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Mgladbach,1 0 1 3 0 1 3 1,(10)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,0 4 0 1 1 6 3 1,(16)</t>
-  </si>
-  <si>
-    <t>Stuttgart,5 0 2 1 1 0 3 1,(13)</t>
-  </si>
-  <si>
-    <t>Union Berlin,1 2 2 0 2 1 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,1 2 1 2 1 1 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Augsburg,4 0 4 0 0 3 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,1 2 0 1 0 1 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Bielefeld,0 1 1 3 0 1 4 1,(11)</t>
-  </si>
-  <si>
-    <t>Bochum,1 0 2 3 7 0 3 0,(16)</t>
-  </si>
-  <si>
-    <t>Dortmund,2 2 2 3 2 1 1 1,(14)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,5 0 1 1 1 1 1 2,(12)</t>
-  </si>
-  <si>
-    <t>FC Koln,1 3 1 1 1 1 1 5,(14)</t>
-  </si>
-  <si>
-    <t>Freiburg,0 1 2 1 0 0 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,5 1 3 2 2 3 3 1,(20)</t>
-  </si>
-  <si>
-    <t>Hertha,3 2 5 1 1 6 2 1,(21)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,0 2 3 2 0 1 3 0,(11)</t>
-  </si>
-  <si>
-    <t>Leverkusen,1 0 1 4 1 0 0 5,(12)</t>
-  </si>
-  <si>
-    <t>Mainz,0 2 0 0 0 1 2 3,(8)</t>
-  </si>
-  <si>
-    <t>Mgladbach,1 4 2 1 1 0 1 1,(11)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,1 0 1 4 1 0 0 1,(8)</t>
-  </si>
-  <si>
-    <t>Stuttgart,1 4 3 1 3 0 1 1,(14)</t>
-  </si>
-  <si>
-    <t>Union Berlin,1 2 1 0 4 0 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,0 1 0 0 1 3 3 2,(10)</t>
-  </si>
-  <si>
-    <t>Augsburg,4 0 5 0 1 3 3 2,(18)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,2 5 5 5 7 4 3 6,(37)</t>
-  </si>
-  <si>
-    <t>Bielefeld,0 2 2 4 0 1 4 2,(15)</t>
-  </si>
-  <si>
-    <t>Bochum,1 2 3 4 7 0 3 1,(21)</t>
-  </si>
-  <si>
-    <t>Dortmund,7 3 5 7 6 1 3 4,(36)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,7 0 2 2 2 2 3 3,(21)</t>
-  </si>
-  <si>
-    <t>FC Koln,4 5 3 2 2 2 4 5,(27)</t>
-  </si>
-  <si>
-    <t>Freiburg,0 3 5 2 0 3 3 2,(18)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,6 2 3 2 3 4 4 1,(25)</t>
-  </si>
-  <si>
-    <t>Hertha,4 3 5 4 3 6 3 3,(31)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,4 4 5 2 0 4 4 5,(28)</t>
-  </si>
-  <si>
-    <t>Leverkusen,2 4 5 7 4 1 4 6,(33)</t>
-  </si>
-  <si>
-    <t>Mainz,1 2 3 2 0 1 3 4,(16)</t>
-  </si>
-  <si>
-    <t>Mgladbach,2 4 3 4 1 1 4 2,(21)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,1 4 1 5 2 6 3 2,(24)</t>
-  </si>
-  <si>
-    <t>Stuttgart,6 4 5 2 4 0 4 2,(27)</t>
-  </si>
-  <si>
-    <t>Union Berlin,2 4 3 0 6 1 3 2,(21)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,1 3 1 2 2 4 4 2,(19)</t>
-  </si>
-  <si>
-    <t>Augsburg,0-4 0-0 1-4 0-0 1-0 3-0 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Bayern Munich,1-1 3-2 5-0 1-4 7-0 1-3 1-2 1-5</t>
-  </si>
-  <si>
-    <t>Bielefeld,0-0 1-1 1-1 3-1 0-0 1-0 0-4 1-1</t>
-  </si>
-  <si>
-    <t>Bochum,1-0 2-0 2-1 1-3 7-0 0-0 3-0 0-1</t>
-  </si>
-  <si>
-    <t>Dortmund,5-2 2-1 3-2 3-4 4-2 1-0 2-1 3-1</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,5-2 0-0 1-1 1-1 1-1 1-1 1-2 1-2</t>
-  </si>
-  <si>
-    <t>FC Koln,3-1 3-2 2-1 1-1 1-1 1-1 3-1 5-0</t>
-  </si>
-  <si>
-    <t>Freiburg,0-0 2-1 2-3 1-1 0-0 3-0 1-2 1-1</t>
-  </si>
-  <si>
-    <t>Greuther Furth,5-1 1-1 3-0 0-2 2-1 1-3 3-1 0-1</t>
-  </si>
-  <si>
-    <t>Hertha,3-1 1-2 5-0 1-3 2-1 6-0 1-2 1-2</t>
-  </si>
-  <si>
-    <t>Hoffenheim,0-4 2-2 3-2 0-2 0-0 3-1 3-1 5-0</t>
-  </si>
-  <si>
-    <t>Leverkusen,1-1 4-0 1-4 3-4 1-3 1-0 0-4 1-5</t>
-  </si>
-  <si>
-    <t>Mainz,1-0 2-0 3-0 0-2 0-0 1-0 1-2 3-1</t>
-  </si>
-  <si>
-    <t>Mgladbach,1-1 4-0 2-1 3-1 1-0 1-0 1-3 1-1</t>
-  </si>
-  <si>
-    <t>RB Leipzig,1-0 4-0 1-0 1-4 1-1 6-0 3-0 1-1</t>
-  </si>
-  <si>
-    <t>Stuttgart,5-1 4-0 2-3 1-1 1-3 0-0 3-1 1-1</t>
-  </si>
-  <si>
-    <t>Union Berlin,1-1 2-2 2-1 0-0 4-2 1-0 1-2 2-0</t>
-  </si>
-  <si>
-    <t>Wolfsburg,1-0 1-2 1-0 0-2 1-1 3-1 1-3 2-0</t>
-  </si>
-  <si>
-    <t>Augsburg,-4 0 -3 0 1 -3 -1 0,(-10)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,0 1 5 3 7 2 -1 4,(21)</t>
-  </si>
-  <si>
-    <t>Bielefeld,0 0 0 -2 0 -1 -4 0,(-7)</t>
-  </si>
-  <si>
-    <t>Bochum,-1 2 -1 -2 -7 0 -3 1,(-11)</t>
-  </si>
-  <si>
-    <t>Dortmund,3 -1 1 1 2 -1 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,-3 0 0 0 0 0 1 -1,(-3)</t>
-  </si>
-  <si>
-    <t>FC Koln,2 -1 1 0 0 0 2 -5,(-1)</t>
-  </si>
-  <si>
-    <t>Freiburg,0 1 1 0 0 3 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,-4 0 -3 -2 -1 -2 -2 -1,(-15)</t>
-  </si>
-  <si>
-    <t>Hertha,-2 -1 -5 2 1 -6 -1 1,(-11)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,4 0 -1 -2 0 2 -2 5,(6)</t>
-  </si>
-  <si>
-    <t>Leverkusen,0 4 3 -1 2 1 4 -4,(9)</t>
-  </si>
-  <si>
-    <t>Mainz,1 -2 3 2 0 -1 -1 -2,(0)</t>
-  </si>
-  <si>
-    <t>Mgladbach,0 -4 -1 2 -1 1 2 0,(-1)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,-1 4 -1 -3 0 6 3 0,(8)</t>
-  </si>
-  <si>
-    <t>Stuttgart,4 -4 -1 0 -2 0 2 0,(-1)</t>
-  </si>
-  <si>
-    <t>Union Berlin,0 0 1 0 -2 1 1 2,(3)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,1 1 1 2 0 -2 -2 -2,(-1)</t>
-  </si>
-  <si>
-    <t>Augsburg,Hoffenheim(8) Ein Frankfurt(14) Leverkusen(4) Union Berlin(5) Mgladbach(9) Freiburg(3) Dortmund(2) Bielefeld(17)</t>
-  </si>
-  <si>
-    <t>Bayern Munich,Mgladbach(9) FC Koln(7) Hertha(12) RB Leipzig(10) Bochum(15) Greuther Furth(18) Ein Frankfurt(14) Leverkusen(4)</t>
-  </si>
-  <si>
-    <t>Bielefeld,Freiburg(3) Greuther Furth(18) Ein Frankfurt(14) Mgladbach(9) Hoffenheim(8) Union Berlin(5) Leverkusen(4) Augsburg(16)</t>
-  </si>
-  <si>
-    <t>Bochum,Wolfsburg(6) Mainz(11) FC Koln(7) Hertha(12) Bayern Munich(1) Stuttgart(13) RB Leipzig(10) Greuther Furth(18)</t>
-  </si>
-  <si>
-    <t>Dortmund,Ein Frankfurt(14) Freiburg(3) Hoffenheim(8) Leverkusen(4) Union Berlin(5) Mgladbach(9) Augsburg(16) Mainz(11)</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt,Dortmund(2) Augsburg(16) Bielefeld(17) Stuttgart(13) Wolfsburg(6) FC Koln(7) Bayern Munich(1) Hertha(12)</t>
-  </si>
-  <si>
-    <t>FC Koln,Hertha(12) Bayern Munich(1) Bochum(15) Freiburg(3) RB Leipzig(10) Ein Frankfurt(14) Greuther Furth(18) Hoffenheim(8)</t>
-  </si>
-  <si>
-    <t>Freiburg,Bielefeld(17) Dortmund(2) Stuttgart(13) FC Koln(7) Mainz(11) Augsburg(16) Hertha(12) RB Leipzig(10)</t>
-  </si>
-  <si>
-    <t>Greuther Furth,Stuttgart(13) Bielefeld(17) Mainz(11) Wolfsburg(6) Hertha(12) Bayern Munich(1) FC Koln(7) Bochum(15)</t>
-  </si>
-  <si>
-    <t>Hertha,FC Koln(7) Wolfsburg(6) Bayern Munich(1) Bochum(15) Greuther Furth(18) RB Leipzig(10) Freiburg(3) Ein Frankfurt(14)</t>
-  </si>
-  <si>
-    <t>Hoffenheim,Augsburg(16) Union Berlin(5) Dortmund(2) Mainz(11) Bielefeld(17) Wolfsburg(6) Stuttgart(13) FC Koln(7)</t>
-  </si>
-  <si>
-    <t>Leverkusen,Union Berlin(5) Mgladbach(9) Augsburg(16) Dortmund(2) Stuttgart(13) Mainz(11) Bielefeld(17) Bayern Munich(1)</t>
-  </si>
-  <si>
-    <t>Mainz,RB Leipzig(10) Bochum(15) Greuther Furth(18) Hoffenheim(8) Freiburg(3) Leverkusen(4) Union Berlin(5) Dortmund(2)</t>
-  </si>
-  <si>
-    <t>Mgladbach,Bayern Munich(1) Leverkusen(4) Union Berlin(5) Bielefeld(17) Augsburg(16) Dortmund(2) Wolfsburg(6) Stuttgart(13)</t>
-  </si>
-  <si>
-    <t>RB Leipzig,Mainz(11) Stuttgart(13) Wolfsburg(6) Bayern Munich(1) FC Koln(7) Hertha(12) Bochum(15) Freiburg(3)</t>
-  </si>
-  <si>
-    <t>Stuttgart,Greuther Furth(18) RB Leipzig(10) Freiburg(3) Ein Frankfurt(14) Leverkusen(4) Bochum(15) Hoffenheim(8) Mgladbach(9)</t>
-  </si>
-  <si>
-    <t>Union Berlin,Leverkusen(4) Hoffenheim(8) Mgladbach(9) Augsburg(16) Dortmund(2) Bielefeld(17) Mainz(11) Wolfsburg(6)</t>
-  </si>
-  <si>
-    <t>Wolfsburg,Bochum(15) Hertha(12) RB Leipzig(10) Greuther Furth(18) Ein Frankfurt(14) Hoffenheim(8) Mgladbach(9) Union Berlin(5)</t>
+    <t>Augsburg,L D W L L D</t>
+  </si>
+  <si>
+    <t>Bayern Munich,W W W W L W</t>
+  </si>
+  <si>
+    <t>Bielefeld,D L D L L D</t>
+  </si>
+  <si>
+    <t>Bochum,L L L D L W</t>
+  </si>
+  <si>
+    <t>Dortmund,W W W L W W</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,D D D D W L</t>
+  </si>
+  <si>
+    <t>FC Koln,W D D D W L</t>
+  </si>
+  <si>
+    <t>Freiburg,W D D W W D</t>
+  </si>
+  <si>
+    <t>Greuther Furth,L L L L L L</t>
+  </si>
+  <si>
+    <t>Hertha,L W W L L W</t>
+  </si>
+  <si>
+    <t>Hoffenheim,L L D W L W</t>
+  </si>
+  <si>
+    <t>Leverkusen,W L W W W L</t>
+  </si>
+  <si>
+    <t>Mainz,W W D L L L</t>
+  </si>
+  <si>
+    <t>Mgladbach,L W L W W D</t>
+  </si>
+  <si>
+    <t>RB Leipzig,L L D W W D</t>
+  </si>
+  <si>
+    <t>Stuttgart,L D L D W D</t>
+  </si>
+  <si>
+    <t>Union Berlin,W D L W W W</t>
+  </si>
+  <si>
+    <t>Wolfsburg,W W D L L L</t>
+  </si>
+  <si>
+    <t>Augsburg,1 0 1 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,5 4 7 3 1 5,(25)</t>
+  </si>
+  <si>
+    <t>Bielefeld,1 1 0 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Bochum,1 1 0 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Dortmund,3 4 4 0 2 3,(16)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,1 1 1 1 2 1,(7)</t>
+  </si>
+  <si>
+    <t>FC Koln,2 1 1 1 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Freiburg,3 1 0 3 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,0 0 1 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Hertha,0 3 2 0 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,2 0 0 3 1 5,(11)</t>
+  </si>
+  <si>
+    <t>Leverkusen,4 3 3 1 4 1,(16)</t>
+  </si>
+  <si>
+    <t>Mainz,3 2 0 0 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Mgladbach,1 3 0 1 3 1,(9)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,0 1 1 6 3 1,(12)</t>
+  </si>
+  <si>
+    <t>Stuttgart,2 1 1 0 3 1,(8)</t>
+  </si>
+  <si>
+    <t>Union Berlin,2 0 2 1 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1 2 1 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Augsburg,4 0 0 3 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,0 1 0 1 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Bielefeld,1 3 0 1 4 1,(10)</t>
+  </si>
+  <si>
+    <t>Bochum,2 3 7 0 3 0,(15)</t>
+  </si>
+  <si>
+    <t>Dortmund,2 3 2 1 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,1 1 1 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>FC Koln,1 1 1 1 1 5,(10)</t>
+  </si>
+  <si>
+    <t>Freiburg,2 1 0 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,3 2 2 3 3 1,(14)</t>
+  </si>
+  <si>
+    <t>Hertha,5 1 1 6 2 1,(16)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,3 2 0 1 3 0,(9)</t>
+  </si>
+  <si>
+    <t>Leverkusen,1 4 1 0 0 5,(11)</t>
+  </si>
+  <si>
+    <t>Mainz,0 0 0 1 2 3,(6)</t>
+  </si>
+  <si>
+    <t>Mgladbach,2 1 1 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1 4 1 0 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Stuttgart,3 1 3 0 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Union Berlin,1 0 4 0 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,0 0 1 3 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Augsburg,5 0 1 3 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,5 5 7 4 3 6,(30)</t>
+  </si>
+  <si>
+    <t>Bielefeld,2 4 0 1 4 2,(13)</t>
+  </si>
+  <si>
+    <t>Bochum,3 4 7 0 3 1,(18)</t>
+  </si>
+  <si>
+    <t>Dortmund,5 7 6 1 3 4,(26)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,2 2 2 2 3 3,(14)</t>
+  </si>
+  <si>
+    <t>FC Koln,3 2 2 2 4 5,(18)</t>
+  </si>
+  <si>
+    <t>Freiburg,5 2 0 3 3 2,(15)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,3 2 3 4 4 1,(17)</t>
+  </si>
+  <si>
+    <t>Hertha,5 4 3 6 3 3,(24)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,5 2 0 4 4 5,(20)</t>
+  </si>
+  <si>
+    <t>Leverkusen,5 7 4 1 4 6,(27)</t>
+  </si>
+  <si>
+    <t>Mainz,3 2 0 1 3 4,(13)</t>
+  </si>
+  <si>
+    <t>Mgladbach,3 4 1 1 4 2,(15)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1 5 2 6 3 2,(19)</t>
+  </si>
+  <si>
+    <t>Stuttgart,5 2 4 0 4 2,(17)</t>
+  </si>
+  <si>
+    <t>Union Berlin,3 0 6 1 3 2,(15)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1 2 2 4 4 2,(15)</t>
+  </si>
+  <si>
+    <t>Augsburg,1-4 0-0 1-0 3-0 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Bayern Munich,5-0 1-4 7-0 1-3 1-2 1-5</t>
+  </si>
+  <si>
+    <t>Bielefeld,1-1 3-1 0-0 1-0 0-4 1-1</t>
+  </si>
+  <si>
+    <t>Bochum,2-1 1-3 7-0 0-0 3-0 0-1</t>
+  </si>
+  <si>
+    <t>Dortmund,3-2 3-4 4-2 1-0 2-1 3-1</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,1-1 1-1 1-1 1-1 1-2 1-2</t>
+  </si>
+  <si>
+    <t>FC Koln,2-1 1-1 1-1 1-1 3-1 5-0</t>
+  </si>
+  <si>
+    <t>Freiburg,2-3 1-1 0-0 3-0 1-2 1-1</t>
+  </si>
+  <si>
+    <t>Greuther Furth,3-0 0-2 2-1 1-3 3-1 0-1</t>
+  </si>
+  <si>
+    <t>Hertha,5-0 1-3 2-1 6-0 1-2 1-2</t>
+  </si>
+  <si>
+    <t>Hoffenheim,3-2 0-2 0-0 3-1 3-1 5-0</t>
+  </si>
+  <si>
+    <t>Leverkusen,1-4 3-4 1-3 1-0 0-4 1-5</t>
+  </si>
+  <si>
+    <t>Mainz,3-0 0-2 0-0 1-0 1-2 3-1</t>
+  </si>
+  <si>
+    <t>Mgladbach,2-1 3-1 1-0 1-0 1-3 1-1</t>
+  </si>
+  <si>
+    <t>RB Leipzig,1-0 1-4 1-1 6-0 3-0 1-1</t>
+  </si>
+  <si>
+    <t>Stuttgart,2-3 1-1 1-3 0-0 3-1 1-1</t>
+  </si>
+  <si>
+    <t>Union Berlin,2-1 0-0 4-2 1-0 1-2 2-0</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1-0 0-2 1-1 3-1 1-3 2-0</t>
+  </si>
+  <si>
+    <t>Augsburg,-3 0 1 -3 -1 0,(-6)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,5 3 7 2 -1 4,(20)</t>
+  </si>
+  <si>
+    <t>Bielefeld,0 -2 0 -1 -4 0,(-7)</t>
+  </si>
+  <si>
+    <t>Bochum,-1 -2 -7 0 -3 1,(-12)</t>
+  </si>
+  <si>
+    <t>Dortmund,1 1 2 -1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,0 0 0 0 1 -1,(0)</t>
+  </si>
+  <si>
+    <t>FC Koln,1 0 0 0 2 -5,(-2)</t>
+  </si>
+  <si>
+    <t>Freiburg,1 0 0 3 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,-3 -2 -1 -2 -2 -1,(-11)</t>
+  </si>
+  <si>
+    <t>Hertha,-5 2 1 -6 -1 1,(-8)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,-1 -2 0 2 -2 5,(2)</t>
+  </si>
+  <si>
+    <t>Leverkusen,3 -1 2 1 4 -4,(5)</t>
+  </si>
+  <si>
+    <t>Mainz,3 2 0 -1 -1 -2,(1)</t>
+  </si>
+  <si>
+    <t>Mgladbach,-1 2 -1 1 2 0,(3)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,-1 -3 0 6 3 0,(5)</t>
+  </si>
+  <si>
+    <t>Stuttgart,-1 0 -2 0 2 0,(-1)</t>
+  </si>
+  <si>
+    <t>Union Berlin,1 0 -2 1 1 2,(3)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,1 2 0 -2 -2 -2,(-3)</t>
+  </si>
+  <si>
+    <t>Augsburg,Leverkusen(4) Union Berlin(5) Mgladbach(9) Freiburg(3) Dortmund(2) Bielefeld(17)</t>
+  </si>
+  <si>
+    <t>Bayern Munich,Hertha(12) RB Leipzig(10) Bochum(15) Greuther Furth(18) Ein Frankfurt(14) Leverkusen(4)</t>
+  </si>
+  <si>
+    <t>Bielefeld,Ein Frankfurt(14) Mgladbach(9) Hoffenheim(8) Union Berlin(5) Leverkusen(4) Augsburg(16)</t>
+  </si>
+  <si>
+    <t>Bochum,FC Koln(7) Hertha(12) Bayern Munich(1) Stuttgart(13) RB Leipzig(10) Greuther Furth(18)</t>
+  </si>
+  <si>
+    <t>Dortmund,Hoffenheim(8) Leverkusen(4) Union Berlin(5) Mgladbach(9) Augsburg(16) Mainz(11)</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt,Bielefeld(17) Stuttgart(13) Wolfsburg(6) FC Koln(7) Bayern Munich(1) Hertha(12)</t>
+  </si>
+  <si>
+    <t>FC Koln,Bochum(15) Freiburg(3) RB Leipzig(10) Ein Frankfurt(14) Greuther Furth(18) Hoffenheim(8)</t>
+  </si>
+  <si>
+    <t>Freiburg,Stuttgart(13) FC Koln(7) Mainz(11) Augsburg(16) Hertha(12) RB Leipzig(10)</t>
+  </si>
+  <si>
+    <t>Greuther Furth,Mainz(11) Wolfsburg(6) Hertha(12) Bayern Munich(1) FC Koln(7) Bochum(15)</t>
+  </si>
+  <si>
+    <t>Hertha,Bayern Munich(1) Bochum(15) Greuther Furth(18) RB Leipzig(10) Freiburg(3) Ein Frankfurt(14)</t>
+  </si>
+  <si>
+    <t>Hoffenheim,Dortmund(2) Mainz(11) Bielefeld(17) Wolfsburg(6) Stuttgart(13) FC Koln(7)</t>
+  </si>
+  <si>
+    <t>Leverkusen,Augsburg(16) Dortmund(2) Stuttgart(13) Mainz(11) Bielefeld(17) Bayern Munich(1)</t>
+  </si>
+  <si>
+    <t>Mainz,Greuther Furth(18) Hoffenheim(8) Freiburg(3) Leverkusen(4) Union Berlin(5) Dortmund(2)</t>
+  </si>
+  <si>
+    <t>Mgladbach,Union Berlin(5) Bielefeld(17) Augsburg(16) Dortmund(2) Wolfsburg(6) Stuttgart(13)</t>
+  </si>
+  <si>
+    <t>RB Leipzig,Wolfsburg(6) Bayern Munich(1) FC Koln(7) Hertha(12) Bochum(15) Freiburg(3)</t>
+  </si>
+  <si>
+    <t>Stuttgart,Freiburg(3) Ein Frankfurt(14) Leverkusen(4) Bochum(15) Hoffenheim(8) Mgladbach(9)</t>
+  </si>
+  <si>
+    <t>Union Berlin,Mgladbach(9) Augsburg(16) Dortmund(2) Bielefeld(17) Mainz(11) Wolfsburg(6)</t>
+  </si>
+  <si>
+    <t>Wolfsburg,RB Leipzig(10) Greuther Furth(18) Ein Frankfurt(14) Hoffenheim(8) Mgladbach(9) Union Berlin(5)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/D1.xlsx
+++ b/Divisions/D1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9655" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9677" uniqueCount="1711">
   <si>
     <t>Team</t>
   </si>
@@ -95052,6 +95052,15 @@
       <c r="V1" t="s">
         <v>105</v>
       </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -95120,6 +95129,15 @@
       <c r="V2" t="s">
         <v>4</v>
       </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -95188,6 +95206,15 @@
       <c r="V3" t="s">
         <v>2</v>
       </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -95256,6 +95283,15 @@
       <c r="V4" t="s">
         <v>2</v>
       </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -95324,6 +95360,15 @@
       <c r="V5" t="s">
         <v>3</v>
       </c>
+      <c r="W5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -95392,6 +95437,15 @@
       <c r="V6" t="s">
         <v>2</v>
       </c>
+      <c r="W6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -95460,6 +95514,15 @@
       <c r="V7" t="s">
         <v>4</v>
       </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -95528,6 +95591,15 @@
       <c r="V8" t="s">
         <v>3</v>
       </c>
+      <c r="W8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -95596,6 +95668,15 @@
       <c r="V9" t="s">
         <v>2</v>
       </c>
+      <c r="W9" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -95664,6 +95745,15 @@
       <c r="V10" t="s">
         <v>2</v>
       </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -95732,6 +95822,15 @@
       <c r="V11" t="s">
         <v>4</v>
       </c>
+      <c r="W11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -95800,6 +95899,15 @@
       <c r="V12" t="s">
         <v>4</v>
       </c>
+      <c r="W12" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -95868,6 +95976,15 @@
       <c r="V13" t="s">
         <v>2</v>
       </c>
+      <c r="W13" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -95936,6 +96053,15 @@
       <c r="V14" t="s">
         <v>4</v>
       </c>
+      <c r="W14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -96004,6 +96130,15 @@
       <c r="V15" t="s">
         <v>4</v>
       </c>
+      <c r="W15" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -96072,6 +96207,15 @@
       <c r="V16" t="s">
         <v>2</v>
       </c>
+      <c r="W16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -96140,6 +96284,15 @@
       <c r="V17" t="s">
         <v>4</v>
       </c>
+      <c r="W17" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -96208,6 +96361,15 @@
       <c r="V18" t="s">
         <v>2</v>
       </c>
+      <c r="W18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -96274,6 +96436,15 @@
         <v>3</v>
       </c>
       <c r="V19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -96296,75 +96467,72 @@
         <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -96375,26 +96543,26 @@
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
+      <c r="C2" t="n">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
@@ -96403,31 +96571,31 @@
         <v>1.0</v>
       </c>
       <c r="L2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.0</v>
       </c>
-      <c r="M2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.0</v>
       </c>
       <c r="Q2" t="n">
         <v>2.0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
       </c>
       <c r="U2" t="n">
         <v>1.0</v>
@@ -96436,15 +96604,12 @@
         <v>1.0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X2" t="n">
         <v>2.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -96455,76 +96620,73 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>5.0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>4.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.0</v>
       </c>
       <c r="O3" t="n">
         <v>1.0</v>
       </c>
       <c r="P3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>4.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.0</v>
       </c>
       <c r="V3" t="n">
         <v>4.0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="X3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -96535,11 +96697,11 @@
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
+      <c r="C4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -96548,16 +96710,16 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
       </c>
       <c r="K4" t="n">
         <v>1.0</v>
@@ -96569,19 +96731,19 @@
         <v>1.0</v>
       </c>
       <c r="N4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.0</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
       </c>
       <c r="S4" t="n">
         <v>2.0</v>
@@ -96596,15 +96758,12 @@
         <v>2.0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -96615,76 +96774,73 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
+      <c r="C5" t="n">
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
       </c>
       <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.0</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>2.0</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.0</v>
       </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.0</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="W5" t="n">
         <v>1.0</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.0</v>
-      </c>
       <c r="X5" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -96695,76 +96851,73 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="C6" t="n">
+        <v>5.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="n">
         <v>4.0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K6" t="n">
         <v>3.0</v>
       </c>
       <c r="L6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3.0</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>2.0</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>1.0</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.0</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>3.0</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="U6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.0</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="X6" t="n">
         <v>3.0</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -96775,14 +96928,14 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
+      <c r="C7" t="n">
+        <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -96794,19 +96947,19 @@
         <v>1.0</v>
       </c>
       <c r="I7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.0</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n">
         <v>2.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.0</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
@@ -96818,33 +96971,30 @@
         <v>2.0</v>
       </c>
       <c r="Q7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.0</v>
       </c>
-      <c r="R7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
         <v>3.0</v>
       </c>
-      <c r="T7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X7" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -96855,17 +97005,17 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
+      <c r="C8" t="n">
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E8" t="n">
         <v>2.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
@@ -96874,57 +97024,54 @@
         <v>1.0</v>
       </c>
       <c r="I8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.0</v>
       </c>
-      <c r="J8" t="n">
+      <c r="O8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>3.0</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="S8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.0</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="W8" t="n">
         <v>1.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.0</v>
       </c>
       <c r="X8" t="n">
         <v>1.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -96935,76 +97082,73 @@
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
+      <c r="C9" t="n">
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="M9" t="n">
         <v>1.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0</v>
       </c>
       <c r="T9" t="n">
         <v>2.0</v>
       </c>
       <c r="U9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.0</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.0</v>
       </c>
-      <c r="W9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z9" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -97015,20 +97159,20 @@
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
+      <c r="C10" t="n">
+        <v>1.0</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
       </c>
       <c r="H10" t="n">
         <v>1.0</v>
@@ -97037,10 +97181,10 @@
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0</v>
       </c>
       <c r="L10" t="n">
         <v>1.0</v>
@@ -97049,19 +97193,19 @@
         <v>1.0</v>
       </c>
       <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.0</v>
       </c>
       <c r="Q10" t="n">
         <v>1.0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
@@ -97070,21 +97214,18 @@
         <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V10" t="n">
         <v>2.0</v>
       </c>
       <c r="W10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X10" t="n">
         <v>2.0</v>
       </c>
-      <c r="X10" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -97095,65 +97236,65 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
+      <c r="C11" t="n">
+        <v>1.0</v>
       </c>
       <c r="D11" t="n">
         <v>1.0</v>
       </c>
       <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.0</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>2.0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>1.0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.0</v>
       </c>
       <c r="Q11" t="n">
         <v>2.0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.0</v>
       </c>
       <c r="W11" t="n">
         <v>1.0</v>
@@ -97162,9 +97303,6 @@
         <v>1.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -97175,76 +97313,73 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
+      <c r="C12" t="n">
+        <v>4.0</v>
       </c>
       <c r="D12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" t="n">
         <v>2.0</v>
       </c>
       <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
         <v>2.0</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="Q12" t="n">
         <v>2.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.0</v>
       </c>
       <c r="R12" t="n">
         <v>2.0</v>
       </c>
       <c r="S12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.0</v>
       </c>
-      <c r="T12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.0</v>
-      </c>
       <c r="W12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X12" t="n">
         <v>2.0</v>
       </c>
-      <c r="X12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z12" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -97255,76 +97390,73 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
+      <c r="C13" t="n">
+        <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E13" t="n">
         <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n">
         <v>3.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1.0</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.0</v>
-      </c>
       <c r="K13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.0</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="R13" t="n">
         <v>2.0</v>
       </c>
       <c r="S13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.0</v>
       </c>
       <c r="U13" t="n">
         <v>2.0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="W13" t="n">
         <v>5.0</v>
       </c>
       <c r="X13" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z13" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -97335,38 +97467,38 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
+      <c r="C14" t="n">
+        <v>1.0</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.0</v>
       </c>
       <c r="J14" t="n">
         <v>1.0</v>
       </c>
       <c r="K14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.0</v>
       </c>
       <c r="N14" t="n">
         <v>1.0</v>
@@ -97375,19 +97507,19 @@
         <v>1.0</v>
       </c>
       <c r="P14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q14" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.0</v>
       </c>
       <c r="U14" t="n">
         <v>1.0</v>
@@ -97396,15 +97528,12 @@
         <v>1.0</v>
       </c>
       <c r="W14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X14" t="n">
         <v>1.0</v>
       </c>
-      <c r="X14" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z14" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -97415,62 +97544,62 @@
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
+      <c r="C15" t="n">
+        <v>1.0</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
         <v>1.0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="F15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>3.0</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1.0</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.0</v>
-      </c>
       <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.0</v>
       </c>
-      <c r="L15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.0</v>
       </c>
-      <c r="N15" t="n">
+      <c r="S15" t="n">
         <v>1.0</v>
       </c>
-      <c r="O15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="T15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.0</v>
       </c>
       <c r="V15" t="n">
         <v>1.0</v>
@@ -97479,12 +97608,9 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z15" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -97495,62 +97621,62 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="C16" t="n">
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
       </c>
       <c r="H16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.0</v>
       </c>
-      <c r="I16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.0</v>
-      </c>
       <c r="K16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.0</v>
       </c>
-      <c r="L16" t="n">
-        <v>4.0</v>
-      </c>
       <c r="M16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.0</v>
       </c>
       <c r="P16" t="n">
         <v>1.0</v>
       </c>
       <c r="Q16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.0</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n">
         <v>4.0</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U16" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="V16" t="n">
         <v>2.0</v>
@@ -97559,12 +97685,9 @@
         <v>2.0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z16" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -97575,29 +97698,29 @@
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
+      <c r="C17" t="n">
+        <v>5.0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.0</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
@@ -97606,13 +97729,13 @@
         <v>1.0</v>
       </c>
       <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
         <v>1.0</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P17" t="n">
         <v>2.0</v>
@@ -97621,30 +97744,27 @@
         <v>2.0</v>
       </c>
       <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" t="n">
         <v>2.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.0</v>
       </c>
       <c r="X17" t="n">
         <v>2.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -97655,35 +97775,35 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
+      <c r="C18" t="n">
+        <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
         <v>2.0</v>
       </c>
       <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.0</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.0</v>
       </c>
       <c r="J18" t="n">
         <v>2.0</v>
       </c>
       <c r="K18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L18" t="n">
         <v>2.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.0</v>
       </c>
       <c r="M18" t="n">
         <v>2.0</v>
@@ -97692,22 +97812,22 @@
         <v>2.0</v>
       </c>
       <c r="O18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P18" t="n">
         <v>2.0</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
         <v>2.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.0</v>
       </c>
       <c r="U18" t="n">
         <v>2.0</v>
@@ -97716,15 +97836,12 @@
         <v>2.0</v>
       </c>
       <c r="W18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X18" t="n">
         <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z18" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -97735,20 +97852,20 @@
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
+      <c r="C19" t="n">
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="n">
         <v>1.0</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>2.0</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.0</v>
       </c>
       <c r="H19" t="n">
         <v>1.0</v>
@@ -97757,54 +97874,51 @@
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.0</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>2.0</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>1.0</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n">
         <v>2.0</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X19" t="n">
         <v>2.0</v>
       </c>
-      <c r="T19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Y19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -97827,75 +97941,72 @@
         <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -97906,35 +98017,35 @@
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
+      <c r="C2" t="n">
+        <v>4.0</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.0</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.0</v>
       </c>
       <c r="M2" t="n">
         <v>1.0</v>
@@ -97946,36 +98057,33 @@
         <v>1.0</v>
       </c>
       <c r="P2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.0</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1.0</v>
       </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>3.0</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -97986,76 +98094,73 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>1.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>2.0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.0</v>
       </c>
-      <c r="N3" t="n">
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="W3" t="n">
         <v>2.0</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="X3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -98066,76 +98171,73 @@
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
+      <c r="C4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.0</v>
       </c>
       <c r="P4" t="n">
         <v>1.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
       </c>
       <c r="U4" t="n">
         <v>2.0</v>
       </c>
       <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X4" t="n">
         <v>2.0</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -98146,76 +98248,73 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
+      <c r="C5" t="n">
+        <v>1.0</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0</v>
       </c>
       <c r="O5" t="n">
         <v>1.0</v>
       </c>
       <c r="P5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>2.0</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>1.0</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.0</v>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>1.0</v>
       </c>
-      <c r="U5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>2.0</v>
       </c>
-      <c r="X5" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -98226,8 +98325,8 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="C6" t="n">
+        <v>2.0</v>
       </c>
       <c r="D6" t="n">
         <v>2.0</v>
@@ -98236,13 +98335,13 @@
         <v>2.0</v>
       </c>
       <c r="F6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G6" t="n">
         <v>2.0</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.0</v>
-      </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -98254,48 +98353,45 @@
         <v>1.0</v>
       </c>
       <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N6" t="n">
         <v>1.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.0</v>
       </c>
       <c r="O6" t="n">
         <v>1.0</v>
       </c>
       <c r="P6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.0</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.0</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>2.0</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.0</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="X6" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -98306,14 +98402,14 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
+      <c r="C7" t="n">
+        <v>5.0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -98328,43 +98424,43 @@
         <v>1.0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K7" t="n">
         <v>2.0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M7" t="n">
         <v>1.0</v>
       </c>
       <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.0</v>
       </c>
-      <c r="O7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="R7" t="n">
         <v>2.0</v>
       </c>
       <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.0</v>
       </c>
       <c r="W7" t="n">
         <v>2.0</v>
@@ -98373,9 +98469,6 @@
         <v>2.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -98386,14 +98479,14 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
+      <c r="C8" t="n">
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E8" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.0</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -98408,10 +98501,10 @@
         <v>1.0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L8" t="n">
         <v>2.0</v>
@@ -98420,7 +98513,7 @@
         <v>2.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="O8" t="n">
         <v>1.0</v>
@@ -98429,33 +98522,30 @@
         <v>1.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R8" t="n">
         <v>2.0</v>
       </c>
       <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.0</v>
       </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4.0</v>
-      </c>
       <c r="W8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -98466,38 +98556,38 @@
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
+      <c r="C9" t="n">
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.0</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.0</v>
-      </c>
       <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.0</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="N9" t="n">
         <v>2.0</v>
@@ -98506,36 +98596,33 @@
         <v>2.0</v>
       </c>
       <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.0</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.0</v>
       </c>
       <c r="X9" t="n">
         <v>1.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -98546,76 +98633,73 @@
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
+      <c r="C10" t="n">
+        <v>5.0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G10" t="n">
         <v>2.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" t="n">
         <v>3.0</v>
       </c>
       <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L10" t="n">
         <v>3.0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.0</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
         <v>4.0</v>
       </c>
-      <c r="M10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>1.0</v>
       </c>
-      <c r="X10" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -98626,76 +98710,73 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
+      <c r="C11" t="n">
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
       <c r="H11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1.0</v>
       </c>
-      <c r="I11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.0</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>2.0</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1.0</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>2.0</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="X11" t="n">
         <v>2.0</v>
       </c>
-      <c r="R11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -98706,76 +98787,73 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
+      <c r="C12" t="n">
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F12" t="n">
         <v>2.0</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
         <v>2.0</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.0</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="R12" t="n">
         <v>2.0</v>
       </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>1.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.0</v>
       </c>
       <c r="T12" t="n">
         <v>1.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W12" t="n">
         <v>2.0</v>
       </c>
-      <c r="W12" t="n">
-        <v>3.0</v>
-      </c>
       <c r="X12" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -98786,53 +98864,53 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
+      <c r="C13" t="n">
+        <v>1.0</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
         <v>1.0</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="F13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.0</v>
       </c>
-      <c r="G13" t="n">
-        <v>4.0</v>
-      </c>
       <c r="H13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K13" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L13" t="n">
         <v>2.0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.0</v>
       </c>
       <c r="P13" t="n">
         <v>1.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="S13" t="n">
         <v>2.0</v>
@@ -98841,21 +98919,18 @@
         <v>2.0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V13" t="n">
         <v>1.0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X13" t="n">
         <v>2.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z13" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -98866,32 +98941,32 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
+      <c r="C14" t="n">
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.0</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.0</v>
       </c>
       <c r="L14" t="n">
         <v>1.0</v>
@@ -98903,39 +98978,36 @@
         <v>1.0</v>
       </c>
       <c r="O14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.0</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="W14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X14" t="n">
         <v>1.0</v>
       </c>
-      <c r="U14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z14" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -98946,26 +99018,26 @@
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
+      <c r="C15" t="n">
+        <v>1.0</v>
       </c>
       <c r="D15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0</v>
       </c>
       <c r="J15" t="n">
         <v>1.0</v>
@@ -98980,42 +99052,39 @@
         <v>1.0</v>
       </c>
       <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.0</v>
       </c>
       <c r="T15" t="n">
         <v>1.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V15" t="n">
         <v>2.0</v>
       </c>
       <c r="W15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X15" t="n">
         <v>2.0</v>
       </c>
-      <c r="X15" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z15" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -99026,29 +99095,29 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="C16" t="n">
+        <v>1.0</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1.0</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="F16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.0</v>
       </c>
-      <c r="G16" t="n">
-        <v>4.0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.0</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
@@ -99060,42 +99129,39 @@
         <v>1.0</v>
       </c>
       <c r="N16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.0</v>
       </c>
       <c r="R16" t="n">
         <v>1.0</v>
       </c>
       <c r="S16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.0</v>
       </c>
-      <c r="T16" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X16" t="n">
         <v>1.0</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Y16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -99106,26 +99172,26 @@
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
+      <c r="C17" t="n">
+        <v>1.0</v>
       </c>
       <c r="D17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.0</v>
       </c>
-      <c r="E17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>3.0</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.0</v>
       </c>
       <c r="J17" t="n">
         <v>1.0</v>
@@ -99134,48 +99200,45 @@
         <v>1.0</v>
       </c>
       <c r="L17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1.0</v>
       </c>
-      <c r="M17" t="n">
-        <v>4.0</v>
-      </c>
       <c r="N17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.0</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>2.0</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.0</v>
       </c>
       <c r="V17" t="n">
         <v>2.0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="X17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -99186,76 +99249,73 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
+      <c r="C18" t="n">
+        <v>1.0</v>
       </c>
       <c r="D18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E18" t="n">
         <v>1.0</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M18" t="n">
         <v>2.0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.0</v>
       </c>
       <c r="Q18" t="n">
         <v>1.0</v>
       </c>
       <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.0</v>
       </c>
       <c r="V18" t="n">
         <v>1.0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -99266,76 +99326,73 @@
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
+      <c r="C19" t="n">
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I19" t="n">
         <v>3.0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K19" t="n">
         <v>2.0</v>
       </c>
       <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n">
         <v>2.0</v>
       </c>
-      <c r="M19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P19" t="n">
         <v>3.0</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R19" t="n">
         <v>3.0</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.0</v>
       </c>
-      <c r="S19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>1.0</v>
       </c>
-      <c r="V19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.0</v>
-      </c>
       <c r="X19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z19" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -99417,6 +99474,15 @@
       <c r="V1" t="s">
         <v>105</v>
       </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -99485,6 +99551,15 @@
       <c r="V2" t="n">
         <v>6.0</v>
       </c>
+      <c r="W2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -99553,6 +99628,15 @@
       <c r="V3" t="n">
         <v>5.0</v>
       </c>
+      <c r="W3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -99621,6 +99705,15 @@
       <c r="V4" t="n">
         <v>2.0</v>
       </c>
+      <c r="W4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -99689,6 +99782,15 @@
       <c r="V5" t="n">
         <v>4.0</v>
       </c>
+      <c r="W5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -99757,6 +99859,15 @@
       <c r="V6" t="n">
         <v>5.0</v>
       </c>
+      <c r="W6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -99825,6 +99936,15 @@
       <c r="V7" t="n">
         <v>2.0</v>
       </c>
+      <c r="W7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -99893,6 +100013,15 @@
       <c r="V8" t="n">
         <v>4.0</v>
       </c>
+      <c r="W8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -99961,6 +100090,15 @@
       <c r="V9" t="n">
         <v>2.0</v>
       </c>
+      <c r="W9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -100029,6 +100167,15 @@
       <c r="V10" t="n">
         <v>3.0</v>
       </c>
+      <c r="W10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -100097,6 +100244,15 @@
       <c r="V11" t="n">
         <v>5.0</v>
       </c>
+      <c r="W11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -100165,6 +100321,15 @@
       <c r="V12" t="n">
         <v>5.0</v>
       </c>
+      <c r="W12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -100233,6 +100398,15 @@
       <c r="V13" t="n">
         <v>6.0</v>
       </c>
+      <c r="W13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -100301,6 +100475,15 @@
       <c r="V14" t="n">
         <v>3.0</v>
       </c>
+      <c r="W14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -100369,6 +100552,15 @@
       <c r="V15" t="n">
         <v>3.0</v>
       </c>
+      <c r="W15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -100437,6 +100629,15 @@
       <c r="V16" t="n">
         <v>2.0</v>
       </c>
+      <c r="W16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -100505,6 +100706,15 @@
       <c r="V17" t="n">
         <v>2.0</v>
       </c>
+      <c r="W17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -100573,6 +100783,15 @@
       <c r="V18" t="n">
         <v>3.0</v>
       </c>
+      <c r="W18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -100640,6 +100859,15 @@
       </c>
       <c r="V19" t="n">
         <v>2.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
